--- a/Excel/JiaYuanConfig.xlsx
+++ b/Excel/JiaYuanConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7967531B-2DEA-42EF-AECF-A6B3334A77EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BEA33C7-7808-4E18-B6D6-2B8A32DD450E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JiaYuanProto" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="70">
   <si>
     <t>Id</t>
   </si>
@@ -89,10 +89,6 @@
     <t>家园20级</t>
   </si>
   <si>
-    <t>名称</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -191,15 +187,69 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>人口上限</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>家园21级</t>
+  </si>
+  <si>
+    <t>家园22级</t>
+  </si>
+  <si>
+    <t>家园23级</t>
+  </si>
+  <si>
+    <t>家园24级</t>
+  </si>
+  <si>
+    <t>家园25级</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>农场种植上限</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>需要玩家等级</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>NeedRoseLv</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>人口上限</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>农场描述</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>JiaYuanDes</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -207,7 +257,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,15 +337,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -406,7 +447,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -457,19 +498,6 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -499,14 +527,14 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
+      <left style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -573,7 +601,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -600,7 +628,7 @@
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
@@ -860,7 +888,7 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1040,7 +1068,7 @@
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1097,7 +1125,7 @@
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1244,7 +1272,7 @@
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1321,128 +1349,128 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1457,31 +1485,25 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2127,10 +2149,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:M25"/>
+  <dimension ref="C1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2141,69 +2163,86 @@
     <col min="6" max="7" width="17.875" customWidth="1"/>
     <col min="8" max="8" width="17.25" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="13" width="9" style="2"/>
+    <col min="10" max="10" width="17.25" customWidth="1"/>
+    <col min="11" max="11" width="25.5" style="2" customWidth="1"/>
+    <col min="12" max="13" width="11.875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11.875" customWidth="1"/>
+    <col min="15" max="20" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E1"/>
       <c r="H1"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
+      <c r="J1"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
     </row>
+    <row r="2" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>22</v>
+      <c r="D3" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="H3" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="12" t="s">
+      <c r="D4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>53</v>
+      <c r="H4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>23</v>
+      <c r="D5" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>1</v>
@@ -2217,508 +2256,740 @@
       <c r="H5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>1</v>
+      <c r="I5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>10001</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>10002</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="13">
-        <v>100000</v>
-      </c>
-      <c r="H6" s="8">
+      <c r="F6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="11">
+        <v>5000</v>
+      </c>
+      <c r="H6" s="7">
         <v>5</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="11">
         <v>5</v>
       </c>
-      <c r="J6" s="6"/>
+      <c r="J6" s="7">
+        <v>5</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>10002</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>10003</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="13">
-        <f>G6+30000</f>
-        <v>130000</v>
-      </c>
-      <c r="H7" s="8">
+      <c r="F7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="11">
+        <v>6600</v>
+      </c>
+      <c r="H7" s="7">
         <v>6</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="11">
         <v>10</v>
       </c>
-      <c r="J7" s="6"/>
+      <c r="J7" s="7">
+        <v>6</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>10003</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>10004</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="13">
-        <f t="shared" ref="G8" si="0">G7+30000</f>
-        <v>160000</v>
-      </c>
-      <c r="H8" s="8">
+      <c r="F8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="11">
+        <v>8400</v>
+      </c>
+      <c r="H8" s="7">
         <v>7</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="11">
         <v>15</v>
       </c>
-      <c r="J8" s="6"/>
+      <c r="J8" s="7">
+        <v>7</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>10004</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>10005</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="13">
-        <f>G8+40000</f>
-        <v>200000</v>
-      </c>
-      <c r="H9" s="8">
+      <c r="F9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="11">
+        <v>11699.999999999998</v>
+      </c>
+      <c r="H9" s="7">
         <v>8</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="11">
         <v>20</v>
       </c>
-      <c r="J9" s="6"/>
+      <c r="J9" s="7">
+        <v>8</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>10005</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>10006</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="13">
-        <f t="shared" ref="G10:G12" si="1">G9+40000</f>
-        <v>240000</v>
-      </c>
-      <c r="H10" s="8">
+      <c r="F10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="11">
+        <v>15399.999999999998</v>
+      </c>
+      <c r="H10" s="7">
         <v>9</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="11">
         <v>25</v>
       </c>
-      <c r="J10" s="6"/>
+      <c r="J10" s="7">
+        <v>9</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>10006</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>10007</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="11">
+        <v>21000</v>
+      </c>
+      <c r="H11" s="7">
+        <v>10</v>
+      </c>
+      <c r="I11" s="11">
         <v>30</v>
       </c>
-      <c r="G11" s="13">
-        <f t="shared" si="1"/>
-        <v>280000</v>
-      </c>
-      <c r="H11" s="8">
+      <c r="J11" s="7">
         <v>10</v>
       </c>
-      <c r="I11" s="13">
-        <v>30</v>
-      </c>
-      <c r="J11" s="6"/>
+      <c r="K11" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>10007</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <v>10008</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="13">
-        <f t="shared" si="1"/>
-        <v>320000</v>
-      </c>
-      <c r="H12" s="8">
+      <c r="F12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="11">
+        <v>27200</v>
+      </c>
+      <c r="H12" s="7">
         <v>11</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="11">
         <v>35</v>
       </c>
-      <c r="J12" s="6"/>
+      <c r="J12" s="7">
+        <v>11</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>10008</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <v>10009</v>
       </c>
-      <c r="F13" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="13">
-        <f>G12+50000</f>
-        <v>370000</v>
-      </c>
-      <c r="H13" s="8">
+      <c r="F13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="11">
+        <v>35700</v>
+      </c>
+      <c r="H13" s="7">
         <v>12</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="11">
         <v>40</v>
       </c>
-      <c r="J13" s="6"/>
+      <c r="J13" s="7">
+        <v>12</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>10009</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="7">
         <v>10010</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="13">
-        <f t="shared" ref="G14" si="2">G13+50000</f>
-        <v>420000</v>
-      </c>
-      <c r="H14" s="8">
+      <c r="F14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="11">
+        <v>45000</v>
+      </c>
+      <c r="H14" s="7">
         <v>13</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="11">
         <v>45</v>
       </c>
-      <c r="J14" s="6"/>
+      <c r="J14" s="7">
+        <v>13</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <v>10010</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="7">
         <v>10011</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="13">
-        <f>G14+60000</f>
-        <v>480000</v>
-      </c>
-      <c r="H15" s="8">
+      <c r="F15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="11">
+        <v>57000</v>
+      </c>
+      <c r="H15" s="7">
         <v>14</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="11">
         <v>50</v>
       </c>
-      <c r="J15" s="6"/>
+      <c r="J15" s="7">
+        <v>14</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="16" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <v>10011</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="7">
         <v>10012</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="11">
+        <v>70000</v>
+      </c>
+      <c r="H16" s="7">
+        <v>15</v>
+      </c>
+      <c r="I16" s="11">
+        <v>50</v>
+      </c>
+      <c r="J16" s="7">
+        <v>15</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="7">
+        <v>10012</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="7">
+        <v>10013</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="13">
-        <f t="shared" ref="G16" si="3">G15+60000</f>
-        <v>540000</v>
-      </c>
-      <c r="H16" s="8">
+      <c r="G17" s="11">
+        <v>86099.999999999985</v>
+      </c>
+      <c r="H17" s="7">
+        <v>16</v>
+      </c>
+      <c r="I17" s="11">
+        <v>50</v>
+      </c>
+      <c r="J17" s="7">
+        <v>16</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="7">
+        <v>10013</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="7">
+        <v>10014</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="11">
+        <v>103399.99999999999</v>
+      </c>
+      <c r="H18" s="7">
+        <v>17</v>
+      </c>
+      <c r="I18" s="11">
+        <v>50</v>
+      </c>
+      <c r="J18" s="7">
+        <v>17</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="7">
+        <v>10014</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="13">
+      <c r="E19" s="7">
+        <v>10015</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="11">
+        <v>124199.99999999999</v>
+      </c>
+      <c r="H19" s="7">
+        <v>18</v>
+      </c>
+      <c r="I19" s="11">
         <v>50</v>
       </c>
-      <c r="J16" s="6"/>
+      <c r="J19" s="7">
+        <v>18</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="17" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="8">
-        <v>10012</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="8">
-        <v>10013</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" s="13">
-        <f>G16+70000</f>
-        <v>610000</v>
-      </c>
-      <c r="H17" s="8">
+    <row r="20" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="7">
+        <v>10015</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="13">
+      <c r="E20" s="7">
+        <v>10016</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="11">
+        <v>146400</v>
+      </c>
+      <c r="H20" s="7">
+        <v>19</v>
+      </c>
+      <c r="I20" s="11">
         <v>50</v>
       </c>
-      <c r="J17" s="6"/>
+      <c r="J20" s="7">
+        <v>19</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="18" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="8">
-        <v>10013</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="8">
-        <v>10014</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" s="13">
-        <f t="shared" ref="G18:G20" si="4">G17+70000</f>
-        <v>680000</v>
-      </c>
-      <c r="H18" s="8">
+    <row r="21" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="7">
+        <v>10016</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="13">
+      <c r="E21" s="7">
+        <v>10017</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="11">
+        <v>172500</v>
+      </c>
+      <c r="H21" s="7">
+        <v>20</v>
+      </c>
+      <c r="I21" s="11">
         <v>50</v>
       </c>
-      <c r="J18" s="6"/>
+      <c r="J21" s="7">
+        <v>20</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="19" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="8">
-        <v>10014</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="8">
-        <v>10015</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="13">
-        <f t="shared" si="4"/>
-        <v>750000</v>
-      </c>
-      <c r="H19" s="8">
+    <row r="22" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="7">
+        <v>10017</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I19" s="13">
+      <c r="E22" s="7">
+        <v>10018</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="11">
+        <v>200199.99999999997</v>
+      </c>
+      <c r="H22" s="7">
+        <v>20</v>
+      </c>
+      <c r="I22" s="11">
         <v>50</v>
       </c>
-      <c r="J19" s="6"/>
+      <c r="J22" s="7">
+        <v>20</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="20" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="8">
-        <v>10015</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="8">
-        <v>10016</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" s="13">
-        <f t="shared" si="4"/>
-        <v>820000</v>
-      </c>
-      <c r="H20" s="8">
+    <row r="23" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C23" s="7">
+        <v>10018</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="7">
+        <v>10019</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="11">
+        <v>232200</v>
+      </c>
+      <c r="H23" s="7">
         <v>20</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I23" s="11">
         <v>50</v>
       </c>
-      <c r="J20" s="6"/>
+      <c r="J23" s="7">
+        <v>20</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="21" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="8">
-        <v>10016</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="8">
-        <v>10017</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" s="13">
-        <f>G20+80000</f>
-        <v>900000</v>
-      </c>
-      <c r="H21" s="8">
-        <v>22</v>
-      </c>
-      <c r="I21" s="13">
+    <row r="24" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="7">
+        <v>10019</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="7">
+        <v>10020</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" s="11">
+        <v>266000</v>
+      </c>
+      <c r="H24" s="7">
+        <v>20</v>
+      </c>
+      <c r="I24" s="11">
         <v>50</v>
       </c>
-      <c r="J21" s="6"/>
+      <c r="J24" s="7">
+        <v>20</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="22" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="8">
-        <v>10017</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="8">
-        <v>10018</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G22" s="13">
-        <f t="shared" ref="G22:G23" si="5">G21+80000</f>
-        <v>980000</v>
-      </c>
-      <c r="H22" s="8">
-        <v>24</v>
-      </c>
-      <c r="I22" s="13">
+    <row r="25" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C25" s="7">
+        <v>10020</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="7">
+        <v>10021</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" s="11">
+        <v>304500</v>
+      </c>
+      <c r="H25" s="7">
+        <v>20</v>
+      </c>
+      <c r="I25" s="11">
         <v>50</v>
       </c>
-      <c r="J22" s="6"/>
+      <c r="J25" s="7">
+        <v>20</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="23" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C23" s="8">
-        <v>10018</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="8">
-        <v>10019</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G23" s="13">
-        <f t="shared" si="5"/>
-        <v>1060000</v>
-      </c>
-      <c r="H23" s="8">
-        <v>26</v>
-      </c>
-      <c r="I23" s="13">
+    <row r="26" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="7">
+        <v>10021</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="7">
+        <v>10022</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="11">
+        <v>345000</v>
+      </c>
+      <c r="H26" s="7">
+        <v>20</v>
+      </c>
+      <c r="I26" s="11">
         <v>50</v>
       </c>
-      <c r="J23" s="6"/>
+      <c r="J26" s="7">
+        <v>20</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="24" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="8">
-        <v>10019</v>
-      </c>
-      <c r="D24" s="10" t="s">
+    <row r="27" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C27" s="7">
+        <v>10022</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="7">
+        <v>10023</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="11">
+        <v>393700</v>
+      </c>
+      <c r="H27" s="7">
         <v>20</v>
       </c>
-      <c r="E24" s="8">
-        <v>10020</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G24" s="13">
-        <f>G23+90000</f>
-        <v>1150000</v>
-      </c>
-      <c r="H24" s="8">
-        <v>28</v>
-      </c>
-      <c r="I24" s="13">
+      <c r="I27" s="11">
         <v>50</v>
       </c>
-      <c r="J24" s="6"/>
+      <c r="J27" s="7">
+        <v>20</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="25" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="8">
-        <v>10020</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="8">
+    <row r="28" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C28" s="7">
+        <v>10023</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="7">
+        <v>10024</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" s="11">
+        <v>444799.99999999994</v>
+      </c>
+      <c r="H28" s="7">
+        <v>20</v>
+      </c>
+      <c r="I28" s="11">
+        <v>50</v>
+      </c>
+      <c r="J28" s="7">
+        <v>20</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C29" s="7">
+        <v>10024</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="7">
+        <v>10025</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G29" s="11">
+        <v>508199.99999999994</v>
+      </c>
+      <c r="H29" s="7">
+        <v>20</v>
+      </c>
+      <c r="I29" s="11">
+        <v>50</v>
+      </c>
+      <c r="J29" s="7">
+        <v>20</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C30" s="7">
+        <v>10025</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="12">
         <v>0</v>
       </c>
-      <c r="F25" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G25" s="13">
-        <f>G24+100000</f>
-        <v>1250000</v>
-      </c>
-      <c r="H25" s="8">
-        <v>30</v>
-      </c>
-      <c r="I25" s="13">
+      <c r="F30" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" s="11">
+        <v>0</v>
+      </c>
+      <c r="H30" s="7">
+        <v>20</v>
+      </c>
+      <c r="I30" s="11">
         <v>50</v>
       </c>
-      <c r="J25" s="6"/>
+      <c r="J30" s="7">
+        <v>20</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>

--- a/Excel/JiaYuanConfig.xlsx
+++ b/Excel/JiaYuanConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1394AA3E-32C6-4A5C-ADB5-D6AA86590ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBDD4A5F-24F6-4F43-A833-DBD981ED69EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="840" windowWidth="23730" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JiaYuanProto" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="80">
   <si>
     <t>Id</t>
   </si>
@@ -260,6 +260,10 @@
   </si>
   <si>
     <t>JiaYuanAddExp</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>家园1级;家园1级</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -2158,7 +2162,7 @@
   <dimension ref="C1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2346,7 +2350,7 @@
         <v>5</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="L6" s="6">
         <v>9000</v>

--- a/Excel/JiaYuanConfig.xlsx
+++ b/Excel/JiaYuanConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBDD4A5F-24F6-4F43-A833-DBD981ED69EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93EB34B-6DB3-4FF8-874B-90913A281C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="840" windowWidth="23730" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JiaYuanProto" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="95">
   <si>
     <t>Id</t>
   </si>
@@ -79,13 +79,7 @@
     <t>JiaYuanDes</t>
   </si>
   <si>
-    <t>ExchangeExpCostZiJin</t>
-  </si>
-  <si>
     <t>ExchangeExp</t>
-  </si>
-  <si>
-    <t>ExchangeZiJinCostGold</t>
   </si>
   <si>
     <t>ExchangeZiJin</t>
@@ -263,15 +257,67 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>家园1级;家园1级</t>
+    <t>ExchangeExpCostZiJin</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExchangeZiJinCostGold</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>人口上限提升至5;耕地上限提升至5;解锁更高级的烹饪</t>
+  </si>
+  <si>
+    <t>人口上限提升至6;耕地上限提升至6;解锁更高级的烹饪</t>
+  </si>
+  <si>
+    <t>人口上限提升至7;耕地上限提升至7;解锁更高级的烹饪</t>
+  </si>
+  <si>
+    <t>人口上限提升至8;耕地上限提升至8;解锁更高级的烹饪</t>
+  </si>
+  <si>
+    <t>人口上限提升至9;耕地上限提升至9;解锁更高级的烹饪</t>
+  </si>
+  <si>
+    <t>人口上限提升至10;耕地上限提升至10;解锁更高级的烹饪</t>
+  </si>
+  <si>
+    <t>人口上限提升至11;耕地上限提升至11;解锁更高级的烹饪</t>
+  </si>
+  <si>
+    <t>人口上限提升至12;耕地上限提升至12;解锁更高级的烹饪</t>
+  </si>
+  <si>
+    <t>人口上限提升至13;耕地上限提升至13;解锁更高级的烹饪</t>
+  </si>
+  <si>
+    <t>人口上限提升至14;耕地上限提升至14;解锁更高级的烹饪</t>
+  </si>
+  <si>
+    <t>人口上限提升至15;耕地上限提升至15;解锁更高级的烹饪</t>
+  </si>
+  <si>
+    <t>人口上限提升至16;耕地上限提升至16;解锁更高级的烹饪</t>
+  </si>
+  <si>
+    <t>人口上限提升至17;耕地上限提升至17;解锁更高级的烹饪</t>
+  </si>
+  <si>
+    <t>人口上限提升至18;耕地上限提升至18;解锁更高级的烹饪</t>
+  </si>
+  <si>
+    <t>人口上限提升至19;耕地上限提升至19;解锁更高级的烹饪</t>
+  </si>
+  <si>
+    <t>人口上限提升至20;耕地上限提升至20;解锁更高级的烹饪</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,6 +394,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="18">
@@ -1477,7 +1530,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1516,6 +1569,7 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="314">
     <cellStyle name="20% - 强调文字颜色 1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -2159,10 +2213,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:P30"/>
+  <dimension ref="C1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2180,7 +2234,7 @@
     <col min="17" max="22" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:20" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E1"/>
       <c r="H1"/>
       <c r="J1"/>
@@ -2191,8 +2245,8 @@
       <c r="O1"/>
       <c r="P1"/>
     </row>
-    <row r="2" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -2233,10 +2287,10 @@
         <v>12</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="4" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -2253,89 +2307,89 @@
         <v>16</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>17</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>18</v>
       </c>
       <c r="L4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="M4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="N4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="O4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="P4" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="4" t="s">
-        <v>78</v>
+      <c r="E5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="5" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="6">
         <v>10001</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E6" s="6">
         <v>10002</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G6" s="8">
         <v>5000</v>
@@ -2367,19 +2421,20 @@
       <c r="P6" s="6">
         <v>420</v>
       </c>
+      <c r="T6" s="14"/>
     </row>
-    <row r="7" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="6">
         <v>10002</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E7" s="6">
         <v>10003</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G7" s="8">
         <v>6600</v>
@@ -2394,7 +2449,7 @@
         <v>6</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="L7" s="6">
         <v>11250</v>
@@ -2411,19 +2466,20 @@
       <c r="P7" s="6">
         <v>460</v>
       </c>
+      <c r="T7" s="14"/>
     </row>
-    <row r="8" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="6">
         <v>10003</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E8" s="6">
         <v>10004</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G8" s="8">
         <v>8400</v>
@@ -2438,7 +2494,7 @@
         <v>7</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="L8" s="6">
         <v>13500</v>
@@ -2455,19 +2511,20 @@
       <c r="P8" s="6">
         <v>500</v>
       </c>
+      <c r="T8" s="14"/>
     </row>
-    <row r="9" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="6">
         <v>10004</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E9" s="6">
         <v>10005</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="8">
         <v>11700</v>
@@ -2482,7 +2539,7 @@
         <v>8</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="L9" s="6">
         <v>15750</v>
@@ -2499,19 +2556,20 @@
       <c r="P9" s="6">
         <v>540</v>
       </c>
+      <c r="T9" s="14"/>
     </row>
-    <row r="10" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="6">
         <v>10005</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E10" s="6">
         <v>10006</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G10" s="8">
         <v>15400</v>
@@ -2526,7 +2584,7 @@
         <v>9</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="L10" s="6">
         <v>18000</v>
@@ -2543,19 +2601,20 @@
       <c r="P10" s="6">
         <v>580</v>
       </c>
+      <c r="T10" s="14"/>
     </row>
-    <row r="11" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="6">
         <v>10006</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E11" s="6">
         <v>10007</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G11" s="8">
         <v>21000</v>
@@ -2570,7 +2629,7 @@
         <v>10</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="L11" s="6">
         <v>20250</v>
@@ -2587,19 +2646,20 @@
       <c r="P11" s="6">
         <v>630</v>
       </c>
+      <c r="T11" s="14"/>
     </row>
-    <row r="12" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="6">
         <v>10007</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E12" s="6">
         <v>10008</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G12" s="8">
         <v>27200</v>
@@ -2614,7 +2674,7 @@
         <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="L12" s="6">
         <v>22500</v>
@@ -2631,19 +2691,20 @@
       <c r="P12" s="6">
         <v>670</v>
       </c>
+      <c r="T12" s="14"/>
     </row>
-    <row r="13" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="6">
         <v>10008</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E13" s="6">
         <v>10009</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G13" s="8">
         <v>35700</v>
@@ -2658,7 +2719,7 @@
         <v>12</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="L13" s="6">
         <v>24750</v>
@@ -2675,19 +2736,20 @@
       <c r="P13" s="6">
         <v>710</v>
       </c>
+      <c r="T13" s="14"/>
     </row>
-    <row r="14" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="6">
         <v>10009</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E14" s="6">
         <v>10010</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G14" s="8">
         <v>45000</v>
@@ -2702,7 +2764,7 @@
         <v>13</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="L14" s="6">
         <v>27000</v>
@@ -2719,19 +2781,20 @@
       <c r="P14" s="6">
         <v>750</v>
       </c>
+      <c r="T14" s="14"/>
     </row>
-    <row r="15" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="6">
         <v>10010</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E15" s="6">
         <v>10011</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G15" s="8">
         <v>57000</v>
@@ -2746,7 +2809,7 @@
         <v>14</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="L15" s="6">
         <v>29250</v>
@@ -2763,19 +2826,20 @@
       <c r="P15" s="6">
         <v>790</v>
       </c>
+      <c r="T15" s="14"/>
     </row>
-    <row r="16" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="6">
         <v>10011</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E16" s="6">
         <v>10012</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G16" s="8">
         <v>70000</v>
@@ -2790,7 +2854,7 @@
         <v>15</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="L16" s="6">
         <v>31500</v>
@@ -2807,19 +2871,20 @@
       <c r="P16" s="6">
         <v>830</v>
       </c>
+      <c r="T16" s="14"/>
     </row>
-    <row r="17" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="6">
         <v>10012</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E17" s="6">
         <v>10013</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G17" s="8">
         <v>86100</v>
@@ -2834,7 +2899,7 @@
         <v>16</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="L17" s="6">
         <v>33750</v>
@@ -2851,19 +2916,20 @@
       <c r="P17" s="6">
         <v>880</v>
       </c>
+      <c r="T17" s="14"/>
     </row>
-    <row r="18" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="6">
         <v>10013</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E18" s="6">
         <v>10014</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G18" s="8">
         <v>103400</v>
@@ -2878,7 +2944,7 @@
         <v>17</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="L18" s="6">
         <v>36000</v>
@@ -2895,19 +2961,20 @@
       <c r="P18" s="6">
         <v>920</v>
       </c>
+      <c r="T18" s="14"/>
     </row>
-    <row r="19" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="6">
         <v>10014</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E19" s="6">
         <v>10015</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G19" s="8">
         <v>124200</v>
@@ -2922,7 +2989,7 @@
         <v>18</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="L19" s="6">
         <v>39000</v>
@@ -2939,19 +3006,20 @@
       <c r="P19" s="6">
         <v>960</v>
       </c>
+      <c r="T19" s="14"/>
     </row>
-    <row r="20" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="6">
         <v>10015</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E20" s="6">
         <v>10016</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G20" s="8">
         <v>146400</v>
@@ -2966,7 +3034,7 @@
         <v>19</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="L20" s="6">
         <v>42000</v>
@@ -2983,19 +3051,20 @@
       <c r="P20" s="6">
         <v>1000</v>
       </c>
+      <c r="T20" s="14"/>
     </row>
-    <row r="21" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="6">
         <v>10016</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E21" s="6">
         <v>10017</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G21" s="8">
         <v>172500</v>
@@ -3010,7 +3079,7 @@
         <v>20</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="L21" s="6">
         <v>45000</v>
@@ -3027,19 +3096,20 @@
       <c r="P21" s="6">
         <v>1040</v>
       </c>
+      <c r="T21" s="14"/>
     </row>
-    <row r="22" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="6">
         <v>10017</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E22" s="6">
         <v>10018</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G22" s="8">
         <v>200200</v>
@@ -3054,7 +3124,7 @@
         <v>20</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="L22" s="6">
         <v>48000</v>
@@ -3071,19 +3141,20 @@
       <c r="P22" s="6">
         <v>1080</v>
       </c>
+      <c r="T22" s="14"/>
     </row>
-    <row r="23" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="6">
         <v>10018</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E23" s="6">
         <v>10019</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G23" s="8">
         <v>232200</v>
@@ -3098,7 +3169,7 @@
         <v>20</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="L23" s="6">
         <v>52500</v>
@@ -3115,19 +3186,20 @@
       <c r="P23" s="6">
         <v>1130</v>
       </c>
+      <c r="T23" s="14"/>
     </row>
-    <row r="24" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="6">
         <v>10019</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E24" s="6">
         <v>10020</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G24" s="8">
         <v>266000</v>
@@ -3142,7 +3214,7 @@
         <v>20</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="L24" s="6">
         <v>58500</v>
@@ -3159,19 +3231,20 @@
       <c r="P24" s="6">
         <v>1170</v>
       </c>
+      <c r="T24" s="14"/>
     </row>
-    <row r="25" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="6">
         <v>10020</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E25" s="6">
         <v>10021</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G25" s="8">
         <v>304500</v>
@@ -3186,7 +3259,7 @@
         <v>20</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="L25" s="6">
         <v>63000</v>
@@ -3203,19 +3276,20 @@
       <c r="P25" s="6">
         <v>1210</v>
       </c>
+      <c r="T25" s="14"/>
     </row>
-    <row r="26" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="6">
         <v>10021</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E26" s="6">
         <v>10022</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G26" s="8">
         <v>345000</v>
@@ -3230,7 +3304,7 @@
         <v>20</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="L26" s="6">
         <v>69000</v>
@@ -3247,19 +3321,20 @@
       <c r="P26" s="6">
         <v>1250</v>
       </c>
+      <c r="T26" s="14"/>
     </row>
-    <row r="27" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="6">
         <v>10022</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E27" s="6">
         <v>10023</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G27" s="8">
         <v>393700</v>
@@ -3274,7 +3349,7 @@
         <v>20</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="L27" s="6">
         <v>72000</v>
@@ -3291,19 +3366,20 @@
       <c r="P27" s="6">
         <v>1290</v>
       </c>
+      <c r="T27" s="14"/>
     </row>
-    <row r="28" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="6">
         <v>10023</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E28" s="6">
         <v>10024</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G28" s="8">
         <v>444800</v>
@@ -3318,7 +3394,7 @@
         <v>20</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="L28" s="6">
         <v>78000</v>
@@ -3335,19 +3411,20 @@
       <c r="P28" s="6">
         <v>1330</v>
       </c>
+      <c r="T28" s="14"/>
     </row>
-    <row r="29" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" s="6">
         <v>10024</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E29" s="6">
         <v>10025</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G29" s="8">
         <v>508200</v>
@@ -3362,7 +3439,7 @@
         <v>20</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="L29" s="6">
         <v>82500</v>
@@ -3379,19 +3456,20 @@
       <c r="P29" s="6">
         <v>1380</v>
       </c>
+      <c r="T29" s="14"/>
     </row>
-    <row r="30" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" s="6">
         <v>10025</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E30" s="10">
         <v>0</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G30" s="8">
         <v>0</v>
@@ -3406,7 +3484,7 @@
         <v>20</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L30" s="6">
         <v>88500</v>
@@ -3423,6 +3501,7 @@
       <c r="P30" s="6">
         <v>1420</v>
       </c>
+      <c r="T30" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>

--- a/Excel/JiaYuanConfig.xlsx
+++ b/Excel/JiaYuanConfig.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93EB34B-6DB3-4FF8-874B-90913A281C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28080" windowHeight="14085"/>
   </bookViews>
   <sheets>
     <sheet name="JiaYuanProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97">
   <si>
     <t>Id</t>
   </si>
@@ -61,6 +55,12 @@
     <t>兑换获得资金</t>
   </si>
   <si>
+    <t>家园每小时产出经验</t>
+  </si>
+  <si>
+    <t>属性上限</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -73,18 +73,36 @@
     <t>Exp</t>
   </si>
   <si>
+    <t>PeopleNumMax</t>
+  </si>
+  <si>
     <t>NeedRoseLv</t>
   </si>
   <si>
+    <t>FarmNumMax</t>
+  </si>
+  <si>
     <t>JiaYuanDes</t>
   </si>
   <si>
+    <t>ExchangeExpCostZiJin</t>
+  </si>
+  <si>
     <t>ExchangeExp</t>
   </si>
   <si>
+    <t>ExchangeZiJinCostGold</t>
+  </si>
+  <si>
     <t>ExchangeZiJin</t>
   </si>
   <si>
+    <t>JiaYuanAddExp</t>
+  </si>
+  <si>
+    <t>ProMax</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -97,96 +115,144 @@
     <t>1</t>
   </si>
   <si>
+    <t>人口上限提升至5;耕地上限提升至5;解锁更高级的烹饪</t>
+  </si>
+  <si>
     <t>家园2级</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
+    <t>人口上限提升至6;耕地上限提升至6;解锁更高级的烹饪</t>
+  </si>
+  <si>
     <t>家园3级</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
+    <t>人口上限提升至7;耕地上限提升至7;解锁更高级的烹饪</t>
+  </si>
+  <si>
     <t>家园4级</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
+    <t>人口上限提升至8;耕地上限提升至8;解锁更高级的烹饪</t>
+  </si>
+  <si>
     <t>家园5级</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
+    <t>人口上限提升至9;耕地上限提升至9;解锁更高级的烹饪</t>
+  </si>
+  <si>
     <t>家园6级</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
+    <t>人口上限提升至10;耕地上限提升至10;解锁更高级的烹饪</t>
+  </si>
+  <si>
     <t>家园7级</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
+    <t>人口上限提升至11;耕地上限提升至11;解锁更高级的烹饪</t>
+  </si>
+  <si>
     <t>家园8级</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
+    <t>人口上限提升至12;耕地上限提升至12;解锁更高级的烹饪</t>
+  </si>
+  <si>
     <t>家园9级</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
+    <t>人口上限提升至13;耕地上限提升至13;解锁更高级的烹饪</t>
+  </si>
+  <si>
     <t>家园10级</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
+    <t>人口上限提升至14;耕地上限提升至14;解锁更高级的烹饪</t>
+  </si>
+  <si>
     <t>家园11级</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
+    <t>人口上限提升至15;耕地上限提升至15;解锁更高级的烹饪</t>
+  </si>
+  <si>
     <t>家园12级</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
+    <t>人口上限提升至16;耕地上限提升至16;解锁更高级的烹饪</t>
+  </si>
+  <si>
     <t>家园13级</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
+    <t>人口上限提升至17;耕地上限提升至17;解锁更高级的烹饪</t>
+  </si>
+  <si>
     <t>家园14级</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
+    <t>人口上限提升至18;耕地上限提升至18;解锁更高级的烹饪</t>
+  </si>
+  <si>
     <t>家园15级</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
+    <t>人口上限提升至19;耕地上限提升至19;解锁更高级的烹饪</t>
+  </si>
+  <si>
     <t>家园16级</t>
   </si>
   <si>
     <t>16</t>
   </si>
   <si>
+    <t>人口上限提升至20;耕地上限提升至20;解锁更高级的烹饪</t>
+  </si>
+  <si>
     <t>家园17级</t>
   </si>
   <si>
@@ -239,85 +305,19 @@
   </si>
   <si>
     <t>25</t>
-  </si>
-  <si>
-    <t>PeopleNumMax</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>FarmNumMax</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>家园每小时产出经验</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>JiaYuanAddExp</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>ExchangeExpCostZiJin</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>ExchangeZiJinCostGold</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>人口上限提升至5;耕地上限提升至5;解锁更高级的烹饪</t>
-  </si>
-  <si>
-    <t>人口上限提升至6;耕地上限提升至6;解锁更高级的烹饪</t>
-  </si>
-  <si>
-    <t>人口上限提升至7;耕地上限提升至7;解锁更高级的烹饪</t>
-  </si>
-  <si>
-    <t>人口上限提升至8;耕地上限提升至8;解锁更高级的烹饪</t>
-  </si>
-  <si>
-    <t>人口上限提升至9;耕地上限提升至9;解锁更高级的烹饪</t>
-  </si>
-  <si>
-    <t>人口上限提升至10;耕地上限提升至10;解锁更高级的烹饪</t>
-  </si>
-  <si>
-    <t>人口上限提升至11;耕地上限提升至11;解锁更高级的烹饪</t>
-  </si>
-  <si>
-    <t>人口上限提升至12;耕地上限提升至12;解锁更高级的烹饪</t>
-  </si>
-  <si>
-    <t>人口上限提升至13;耕地上限提升至13;解锁更高级的烹饪</t>
-  </si>
-  <si>
-    <t>人口上限提升至14;耕地上限提升至14;解锁更高级的烹饪</t>
-  </si>
-  <si>
-    <t>人口上限提升至15;耕地上限提升至15;解锁更高级的烹饪</t>
-  </si>
-  <si>
-    <t>人口上限提升至16;耕地上限提升至16;解锁更高级的烹饪</t>
-  </si>
-  <si>
-    <t>人口上限提升至17;耕地上限提升至17;解锁更高级的烹饪</t>
-  </si>
-  <si>
-    <t>人口上限提升至18;耕地上限提升至18;解锁更高级的烹饪</t>
-  </si>
-  <si>
-    <t>人口上限提升至19;耕地上限提升至19;解锁更高级的烹饪</t>
-  </si>
-  <si>
-    <t>人口上限提升至20;耕地上限提升至20;解锁更高级的烹饪</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,28 +328,25 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -357,7 +354,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -365,33 +361,18 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -399,11 +380,161 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="49">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -424,49 +555,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505021"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79992065187536243"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79992065187536243"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79992065187536243"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79992065187536243"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79992065187536243"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="0" tint="-0.14996795556505"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799920651875362"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799920651875362"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799920651875362"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799920651875362"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799920651875362"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799920651875362"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,36 +657,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79992065187536243"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -564,7 +881,7 @@
         <color theme="1" tint="0.499984740745262"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399945066682943"/>
       </top>
       <bottom style="hair">
         <color theme="1" tint="0.499984740745262"/>
@@ -583,6 +900,48 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -597,940 +956,1125 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="314">
+  <cellStyleXfs count="362">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1539,10 +2083,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1563,334 +2107,376 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="314">
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 3" xfId="17" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="27" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="48" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 4 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="51" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="54" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 3" xfId="36" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="59" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 4" xfId="29" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 4 2" xfId="61" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 5" xfId="21" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 5 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 6" xfId="63" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 7" xfId="64" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="65" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="66" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="68" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2 3" xfId="70" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="71" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 3 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="74" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 4 2" xfId="76" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="77" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="79" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 3" xfId="80" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="81" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="82" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 4" xfId="83" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 4 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 5" xfId="84" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 5 2" xfId="85" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 6" xfId="67" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 7" xfId="69" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2 2" xfId="88" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2 3" xfId="89" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="90" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 3 2" xfId="91" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 4" xfId="92" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 4 2" xfId="93" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 5" xfId="94" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 6" xfId="95" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 3" xfId="28" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="96" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 4" xfId="97" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 4 2" xfId="98" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 5" xfId="99" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 5 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 6" xfId="72" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 7" xfId="101" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="103" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="104" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="105" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2 3" xfId="106" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="107" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 3 2" xfId="108" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 4" xfId="109" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 4 2" xfId="110" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="111" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="112" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="114" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="115" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="116" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 4" xfId="118" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 4 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 5" xfId="8" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 5 2" xfId="120" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 6" xfId="75" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 7" xfId="121" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="122" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="123" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="125" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2 3" xfId="126" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="127" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 3 2" xfId="129" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="130" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 4 2" xfId="133" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 5" xfId="134" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 6" xfId="135" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 3" xfId="136" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="137" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="12" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 4" xfId="138" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 4 2" xfId="139" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 5" xfId="140" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 5 2" xfId="141" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 6" xfId="142" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 7" xfId="143" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="144" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="146" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="148" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2 3" xfId="149" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="151" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 3 2" xfId="153" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="155" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 4 2" xfId="156" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="132" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="157" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 3" xfId="158" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="160" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="162" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 4" xfId="163" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 4 2" xfId="165" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 5" xfId="167" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 5 2" xfId="169" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 6" xfId="171" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 7" xfId="173" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="174" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="177" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="178" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2 3" xfId="180" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="181" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 3 2" xfId="78" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 4" xfId="182" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 4 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 5" xfId="183" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 6" xfId="184" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 3" xfId="185" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="186" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 3 3" xfId="187" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 4" xfId="188" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 4 2" xfId="189" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 5" xfId="190" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 5 2" xfId="191" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 6" xfId="192" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 7" xfId="193" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2 2" xfId="194" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2 3" xfId="195" xr:uid="{00000000-0005-0000-0000-0000F3000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="196" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 3 2" xfId="197" xr:uid="{00000000-0005-0000-0000-0000F5000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 4" xfId="199" xr:uid="{00000000-0005-0000-0000-0000F7000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 4 2" xfId="200" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 5" xfId="201" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 6" xfId="203" xr:uid="{00000000-0005-0000-0000-0000FB000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 3" xfId="47" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 3" xfId="204" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 4" xfId="50" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 4 2" xfId="205" xr:uid="{00000000-0005-0000-0000-0000FD000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 5" xfId="53" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 5 2" xfId="206" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 6" xfId="207" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 7" xfId="124" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="58" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="209" xr:uid="{00000000-0005-0000-0000-000001010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="211" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 3" xfId="213" xr:uid="{00000000-0005-0000-0000-000005010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="214" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 3 2" xfId="215" xr:uid="{00000000-0005-0000-0000-000007010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 4" xfId="210" xr:uid="{00000000-0005-0000-0000-000002010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 4 2" xfId="216" xr:uid="{00000000-0005-0000-0000-000008010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="212" xr:uid="{00000000-0005-0000-0000-000004010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 6" xfId="217" xr:uid="{00000000-0005-0000-0000-000009010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 3" xfId="219" xr:uid="{00000000-0005-0000-0000-00000B010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="220" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="19" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 4" xfId="222" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 4 2" xfId="223" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 5" xfId="224" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 5 2" xfId="225" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 6" xfId="226" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 7" xfId="128" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="227" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2 2" xfId="228" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2 3" xfId="229" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="230" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 3 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 4" xfId="231" xr:uid="{00000000-0005-0000-0000-000017010000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 4 2" xfId="232" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 5" xfId="233" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 6" xfId="234" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 3" xfId="235" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 3" xfId="35" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 4" xfId="145" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 4 2" xfId="147" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 5" xfId="150" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 5 2" xfId="152" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 6" xfId="154" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 7" xfId="131" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="236" xr:uid="{00000000-0005-0000-0000-00001C010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="166" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="168" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2 3" xfId="237" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="170" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 3 2" xfId="238" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 4" xfId="172" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 4 2" xfId="239" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 5" xfId="240" xr:uid="{00000000-0005-0000-0000-000020010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 6" xfId="241" xr:uid="{00000000-0005-0000-0000-000021010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 3" xfId="242" xr:uid="{00000000-0005-0000-0000-000022010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="243" xr:uid="{00000000-0005-0000-0000-000023010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="244" xr:uid="{00000000-0005-0000-0000-000024010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 4" xfId="159" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 4 2" xfId="245" xr:uid="{00000000-0005-0000-0000-000025010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 5" xfId="161" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 5 2" xfId="246" xr:uid="{00000000-0005-0000-0000-000026010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 6" xfId="248" xr:uid="{00000000-0005-0000-0000-000028010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 7" xfId="23" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="249" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="250" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="252" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2 3" xfId="176" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="253" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 3 2" xfId="254" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 4" xfId="255" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 4 2" xfId="256" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 5" xfId="257" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 6" xfId="258" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 3" xfId="259" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="260" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 3" xfId="261" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 4" xfId="164" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 4 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 5" xfId="24" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 5 2" xfId="262" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 6" xfId="263" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 7" xfId="264" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
+  <cellStyles count="362">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="265" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
-    <cellStyle name="常规 2 2" xfId="266" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
-    <cellStyle name="常规 2 3" xfId="267" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
-    <cellStyle name="常规 2 3 2" xfId="268" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
-    <cellStyle name="常规 2 3 2 2" xfId="202" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
-    <cellStyle name="常规 2 3 2 2 2" xfId="269" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
-    <cellStyle name="常规 2 3 2 2 2 2" xfId="270" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
-    <cellStyle name="常规 2 3 2 2 2 3" xfId="271" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
-    <cellStyle name="常规 2 3 2 2 3" xfId="272" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
-    <cellStyle name="常规 2 3 2 2 3 2" xfId="273" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
-    <cellStyle name="常规 2 3 2 2 4" xfId="275" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
-    <cellStyle name="常规 2 3 2 2 4 2" xfId="276" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
-    <cellStyle name="常规 2 3 2 2 5" xfId="32" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
-    <cellStyle name="常规 2 3 2 2 6" xfId="34" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
-    <cellStyle name="常规 2 3 2 3" xfId="44" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
-    <cellStyle name="常规 2 3 2 3 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="常规 2 3 2 3 3" xfId="16" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="常规 2 3 2 4" xfId="25" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="常规 2 3 2 4 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="常规 2 3 2 5" xfId="46" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
-    <cellStyle name="常规 2 3 2 5 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="常规 2 3 2 6" xfId="49" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
-    <cellStyle name="常规 2 3 2 7" xfId="52" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
-    <cellStyle name="常规 2 3 3" xfId="277" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
-    <cellStyle name="常规 2 3 3 2" xfId="278" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
-    <cellStyle name="常规 2 3 3 2 2" xfId="279" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
-    <cellStyle name="常规 2 3 3 2 3" xfId="280" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
-    <cellStyle name="常规 2 3 3 3" xfId="55" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
-    <cellStyle name="常规 2 3 3 3 2" xfId="282" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
-    <cellStyle name="常规 2 3 3 4" xfId="57" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
-    <cellStyle name="常规 2 3 3 4 2" xfId="208" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
-    <cellStyle name="常规 2 3 3 5" xfId="218" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
-    <cellStyle name="常规 2 3 3 6" xfId="221" xr:uid="{00000000-0005-0000-0000-00000D010000}"/>
-    <cellStyle name="常规 2 3 4" xfId="283" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
-    <cellStyle name="常规 2 3 4 2" xfId="284" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
-    <cellStyle name="常规 2 3 4 3" xfId="60" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
-    <cellStyle name="常规 2 3 5" xfId="285" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
-    <cellStyle name="常规 2 3 5 2" xfId="286" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
-    <cellStyle name="常规 2 3 6" xfId="288" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
-    <cellStyle name="常规 2 3 6 2" xfId="289" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
-    <cellStyle name="常规 2 3 7" xfId="291" xr:uid="{00000000-0005-0000-0000-000053010000}"/>
-    <cellStyle name="常规 2 3 8" xfId="292" xr:uid="{00000000-0005-0000-0000-000054010000}"/>
-    <cellStyle name="常规 3" xfId="102" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
-    <cellStyle name="常规 4" xfId="113" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
-    <cellStyle name="常规 5" xfId="117" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
-    <cellStyle name="常规 5 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="常规 5 2 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="常规 5 2 2 2" xfId="287" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
-    <cellStyle name="常规 5 2 2 3" xfId="290" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
-    <cellStyle name="常规 5 2 3" xfId="14" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="常规 5 2 3 2" xfId="293" xr:uid="{00000000-0005-0000-0000-000055010000}"/>
-    <cellStyle name="常规 5 2 4" xfId="9" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="常规 5 2 4 2" xfId="294" xr:uid="{00000000-0005-0000-0000-000056010000}"/>
-    <cellStyle name="常规 5 2 5" xfId="3" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="常规 5 2 6" xfId="15" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="常规 5 3" xfId="295" xr:uid="{00000000-0005-0000-0000-000057010000}"/>
-    <cellStyle name="常规 5 3 2" xfId="296" xr:uid="{00000000-0005-0000-0000-000058010000}"/>
-    <cellStyle name="常规 5 3 3" xfId="297" xr:uid="{00000000-0005-0000-0000-000059010000}"/>
-    <cellStyle name="常规 5 4" xfId="298" xr:uid="{00000000-0005-0000-0000-00005A010000}"/>
-    <cellStyle name="常规 5 4 2" xfId="299" xr:uid="{00000000-0005-0000-0000-00005B010000}"/>
-    <cellStyle name="常规 5 5" xfId="300" xr:uid="{00000000-0005-0000-0000-00005C010000}"/>
-    <cellStyle name="常规 5 5 2" xfId="301" xr:uid="{00000000-0005-0000-0000-00005D010000}"/>
-    <cellStyle name="常规 5 6" xfId="251" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
-    <cellStyle name="常规 5 7" xfId="175" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
-    <cellStyle name="常规 6" xfId="7" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="注释 2" xfId="119" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
-    <cellStyle name="注释 2 2" xfId="247" xr:uid="{00000000-0005-0000-0000-000027010000}"/>
-    <cellStyle name="注释 2 2 2" xfId="302" xr:uid="{00000000-0005-0000-0000-00005E010000}"/>
-    <cellStyle name="注释 2 2 2 2" xfId="303" xr:uid="{00000000-0005-0000-0000-00005F010000}"/>
-    <cellStyle name="注释 2 2 2 3" xfId="304" xr:uid="{00000000-0005-0000-0000-000060010000}"/>
-    <cellStyle name="注释 2 2 3" xfId="305" xr:uid="{00000000-0005-0000-0000-000061010000}"/>
-    <cellStyle name="注释 2 2 3 2" xfId="179" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
-    <cellStyle name="注释 2 2 4" xfId="306" xr:uid="{00000000-0005-0000-0000-000062010000}"/>
-    <cellStyle name="注释 2 2 4 2" xfId="307" xr:uid="{00000000-0005-0000-0000-000063010000}"/>
-    <cellStyle name="注释 2 2 5" xfId="308" xr:uid="{00000000-0005-0000-0000-000064010000}"/>
-    <cellStyle name="注释 2 2 6" xfId="309" xr:uid="{00000000-0005-0000-0000-000065010000}"/>
-    <cellStyle name="注释 2 3" xfId="22" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="注释 2 3 2" xfId="274" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
-    <cellStyle name="注释 2 3 3" xfId="31" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="注释 2 4" xfId="310" xr:uid="{00000000-0005-0000-0000-000066010000}"/>
-    <cellStyle name="注释 2 4 2" xfId="311" xr:uid="{00000000-0005-0000-0000-000067010000}"/>
-    <cellStyle name="注释 2 5" xfId="281" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
-    <cellStyle name="注释 2 5 2" xfId="198" xr:uid="{00000000-0005-0000-0000-0000F6000000}"/>
-    <cellStyle name="注释 2 6" xfId="312" xr:uid="{00000000-0005-0000-0000-000068010000}"/>
-    <cellStyle name="注释 2 7" xfId="313" xr:uid="{00000000-0005-0000-0000-000069010000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="2"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 4 2" xfId="5"/>
+    <cellStyle name="货币" xfId="6" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
+    <cellStyle name="差" xfId="9" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
+    <cellStyle name="常规 5 2 5" xfId="11"/>
+    <cellStyle name="常规 2 3 2 3 2" xfId="12"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 2" xfId="13"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="14" builtinId="40"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8"/>
+    <cellStyle name="百分比" xfId="16" builtinId="5"/>
+    <cellStyle name="40% - 强调文字颜色 6 4 2" xfId="17"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9"/>
+    <cellStyle name="常规 6" xfId="19"/>
+    <cellStyle name="20% - 强调文字颜色 4 5" xfId="20"/>
+    <cellStyle name="注释" xfId="21" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="22" builtinId="36"/>
+    <cellStyle name="常规 5 2 4" xfId="23"/>
+    <cellStyle name="标题 4" xfId="24" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="25" builtinId="11"/>
+    <cellStyle name="常规 5 2" xfId="26"/>
+    <cellStyle name="20% - 强调文字颜色 4 4 2" xfId="27"/>
+    <cellStyle name="标题" xfId="28" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="29" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="30"/>
+    <cellStyle name="标题 1" xfId="31" builtinId="16"/>
+    <cellStyle name="常规 5 2 2" xfId="32"/>
+    <cellStyle name="标题 2" xfId="33" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="34" builtinId="32"/>
+    <cellStyle name="常规 5 2 3" xfId="35"/>
+    <cellStyle name="标题 3" xfId="36" builtinId="18"/>
+    <cellStyle name="常规 5 2 6" xfId="37"/>
+    <cellStyle name="常规 2 3 2 3 3" xfId="38"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 3" xfId="39"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="20% - 强调文字颜色 2 4 2" xfId="41"/>
+    <cellStyle name="输出" xfId="42" builtinId="21"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="43"/>
+    <cellStyle name="计算" xfId="44" builtinId="22"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="45"/>
+    <cellStyle name="检查单元格" xfId="46" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 1 5" xfId="47"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="48" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="49" builtinId="33"/>
+    <cellStyle name="注释 2 3" xfId="50"/>
+    <cellStyle name="40% - 强调文字颜色 5 7" xfId="51"/>
+    <cellStyle name="链接单元格" xfId="52" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6 5" xfId="53"/>
+    <cellStyle name="汇总" xfId="54" builtinId="25"/>
+    <cellStyle name="好" xfId="55" builtinId="26"/>
+    <cellStyle name="常规 2 3 2 4" xfId="56"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="57"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="58"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="59"/>
+    <cellStyle name="适中" xfId="60" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 1 4" xfId="61"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="62" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 3 2" xfId="63"/>
+    <cellStyle name="强调文字颜色 1" xfId="64" builtinId="29"/>
+    <cellStyle name="注释 2 3 3" xfId="65"/>
+    <cellStyle name="常规 2 3 2 2 5" xfId="66"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="67" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="68"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="69" builtinId="31"/>
+    <cellStyle name="常规 2 3 2 2 6" xfId="70"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="71" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 3" xfId="72"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="73" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="74" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="75" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 1 3" xfId="76"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="77" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="78" builtinId="43"/>
+    <cellStyle name="常规 2 3 2 5 2" xfId="79"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="80"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4 2" xfId="81"/>
+    <cellStyle name="强调文字颜色 5" xfId="82" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="83" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="84" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="85" builtinId="49"/>
+    <cellStyle name="常规 2 3 2 4 2" xfId="86"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="87"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3 2" xfId="88"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="89"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="90" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="91" builtinId="52"/>
+    <cellStyle name="常规 2 3 2 3" xfId="92"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="93"/>
+    <cellStyle name="常规 2 3 2 5" xfId="94"/>
+    <cellStyle name="40% - 强调文字颜色 2 3" xfId="95"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="96"/>
+    <cellStyle name="常规 2 3 2 6" xfId="97"/>
+    <cellStyle name="40% - 强调文字颜色 2 4" xfId="98"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="99"/>
+    <cellStyle name="常规 2 3 2 7" xfId="100"/>
+    <cellStyle name="40% - 强调文字颜色 2 5" xfId="101"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="102"/>
+    <cellStyle name="常规 2 3 3 3" xfId="103"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="104"/>
+    <cellStyle name="常规 2 3 3 4" xfId="105"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="106"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="107"/>
+    <cellStyle name="常规 2 3 4 3" xfId="108"/>
+    <cellStyle name="20% - 强调文字颜色 1 4 2" xfId="109"/>
+    <cellStyle name="20% - 强调文字颜色 1 5 2" xfId="110"/>
+    <cellStyle name="20% - 强调文字颜色 1 6" xfId="111"/>
+    <cellStyle name="20% - 强调文字颜色 1 7" xfId="112"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="113"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="114"/>
+    <cellStyle name="20% - 强调文字颜色 2 6" xfId="115"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="116"/>
+    <cellStyle name="20% - 强调文字颜色 2 7" xfId="117"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 3" xfId="118"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="119"/>
+    <cellStyle name="20% - 强调文字颜色 3 6" xfId="120"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 3 2" xfId="121"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="122"/>
+    <cellStyle name="20% - 强调文字颜色 4 6" xfId="123"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 4 2" xfId="124"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="125"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 3 2" xfId="126"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="127"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="128"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="129"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="130"/>
+    <cellStyle name="20% - 强调文字颜色 2 4" xfId="131"/>
+    <cellStyle name="20% - 强调文字颜色 2 5" xfId="132"/>
+    <cellStyle name="20% - 强调文字颜色 2 5 2" xfId="133"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="134"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="135"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2 2" xfId="136"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2 3" xfId="137"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="138"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 3 2" xfId="139"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 4" xfId="140"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 4 2" xfId="141"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 5" xfId="142"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 6" xfId="143"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="144"/>
+    <cellStyle name="20% - 强调文字颜色 3 4" xfId="145"/>
+    <cellStyle name="20% - 强调文字颜色 3 4 2" xfId="146"/>
+    <cellStyle name="20% - 强调文字颜色 3 5" xfId="147"/>
+    <cellStyle name="20% - 强调文字颜色 3 5 2" xfId="148"/>
+    <cellStyle name="20% - 强调文字颜色 3 7" xfId="149"/>
+    <cellStyle name="常规 3" xfId="150"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="151"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="152"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="153"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2 3" xfId="154"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="155"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 3 2" xfId="156"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 4" xfId="157"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 4 2" xfId="158"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="159"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="160"/>
+    <cellStyle name="常规 4" xfId="161"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="162"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="163"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="164"/>
+    <cellStyle name="常规 5" xfId="165"/>
+    <cellStyle name="20% - 强调文字颜色 4 4" xfId="166"/>
+    <cellStyle name="注释 2" xfId="167"/>
+    <cellStyle name="20% - 强调文字颜色 4 5 2" xfId="168"/>
+    <cellStyle name="20% - 强调文字颜色 4 7" xfId="169"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="170"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="171"/>
+    <cellStyle name="40% - 强调文字颜色 2 7" xfId="172"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="173"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2 3" xfId="174"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="175"/>
+    <cellStyle name="40% - 强调文字颜色 3 7" xfId="176"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 3 2" xfId="177"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="178"/>
+    <cellStyle name="40% - 强调文字颜色 4 7" xfId="179"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="180"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 4 2" xfId="181"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 5" xfId="182"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 6" xfId="183"/>
+    <cellStyle name="20% - 强调文字颜色 5 3" xfId="184"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="185"/>
+    <cellStyle name="20% - 强调文字颜色 5 4" xfId="186"/>
+    <cellStyle name="20% - 强调文字颜色 5 4 2" xfId="187"/>
+    <cellStyle name="20% - 强调文字颜色 5 5" xfId="188"/>
+    <cellStyle name="20% - 强调文字颜色 5 5 2" xfId="189"/>
+    <cellStyle name="20% - 强调文字颜色 5 6" xfId="190"/>
+    <cellStyle name="20% - 强调文字颜色 5 7" xfId="191"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="192"/>
+    <cellStyle name="40% - 强调文字颜色 4 4" xfId="193"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="194"/>
+    <cellStyle name="40% - 强调文字颜色 4 4 2" xfId="195"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="196"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2 3" xfId="197"/>
+    <cellStyle name="40% - 强调文字颜色 4 5" xfId="198"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="199"/>
+    <cellStyle name="40% - 强调文字颜色 4 5 2" xfId="200"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 3 2" xfId="201"/>
+    <cellStyle name="40% - 强调文字颜色 4 6" xfId="202"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="203"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 4 2" xfId="204"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="205"/>
+    <cellStyle name="20% - 强调文字颜色 6 3" xfId="206"/>
+    <cellStyle name="40% - 强调文字颜色 5 4" xfId="207"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="208"/>
+    <cellStyle name="40% - 强调文字颜色 5 5" xfId="209"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="210"/>
+    <cellStyle name="20% - 强调文字颜色 6 4" xfId="211"/>
+    <cellStyle name="40% - 强调文字颜色 6 4" xfId="212"/>
+    <cellStyle name="20% - 强调文字颜色 6 4 2" xfId="213"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="214"/>
+    <cellStyle name="20% - 强调文字颜色 6 5" xfId="215"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="216"/>
+    <cellStyle name="20% - 强调文字颜色 6 5 2" xfId="217"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="218"/>
+    <cellStyle name="20% - 强调文字颜色 6 6" xfId="219"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 4" xfId="220"/>
+    <cellStyle name="20% - 强调文字颜色 6 7" xfId="221"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="222"/>
+    <cellStyle name="常规 5 7" xfId="223"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 3" xfId="224"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="225"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="226"/>
+    <cellStyle name="注释 2 2 3 2" xfId="227"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 3" xfId="228"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="229"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 4" xfId="230"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 5" xfId="231"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 6" xfId="232"/>
+    <cellStyle name="40% - 强调文字颜色 1 3" xfId="233"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="234"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 3" xfId="235"/>
+    <cellStyle name="40% - 强调文字颜色 1 4" xfId="236"/>
+    <cellStyle name="40% - 强调文字颜色 1 4 2" xfId="237"/>
+    <cellStyle name="40% - 强调文字颜色 1 5" xfId="238"/>
+    <cellStyle name="40% - 强调文字颜色 1 5 2" xfId="239"/>
+    <cellStyle name="40% - 强调文字颜色 1 6" xfId="240"/>
+    <cellStyle name="40% - 强调文字颜色 1 7" xfId="241"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2 2" xfId="242"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2 3" xfId="243"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="244"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 3 2" xfId="245"/>
+    <cellStyle name="注释 2 5 2" xfId="246"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 4" xfId="247"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 4 2" xfId="248"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 5" xfId="249"/>
+    <cellStyle name="常规 2 3 2 2" xfId="250"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 6" xfId="251"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 3" xfId="252"/>
+    <cellStyle name="40% - 强调文字颜色 2 4 2" xfId="253"/>
+    <cellStyle name="40% - 强调文字颜色 2 5 2" xfId="254"/>
+    <cellStyle name="40% - 强调文字颜色 2 6" xfId="255"/>
+    <cellStyle name="常规 2 3 3 4 2" xfId="256"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="257"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 4" xfId="258"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="259"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="260"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 3" xfId="261"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="262"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 3 2" xfId="263"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 4 2" xfId="264"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 6" xfId="265"/>
+    <cellStyle name="常规 2 3 3 5" xfId="266"/>
+    <cellStyle name="40% - 强调文字颜色 3 3" xfId="267"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="268"/>
+    <cellStyle name="常规 2 3 3 6" xfId="269"/>
+    <cellStyle name="40% - 强调文字颜色 3 4" xfId="270"/>
+    <cellStyle name="40% - 强调文字颜色 3 4 2" xfId="271"/>
+    <cellStyle name="40% - 强调文字颜色 3 5" xfId="272"/>
+    <cellStyle name="40% - 强调文字颜色 3 5 2" xfId="273"/>
+    <cellStyle name="40% - 强调文字颜色 3 6" xfId="274"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="275"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2 2" xfId="276"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2 3" xfId="277"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="278"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 4" xfId="279"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 4 2" xfId="280"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 5" xfId="281"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 6" xfId="282"/>
+    <cellStyle name="40% - 强调文字颜色 4 3" xfId="283"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="284"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 3" xfId="285"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 3 2" xfId="286"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 4 2" xfId="287"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 5" xfId="288"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 6" xfId="289"/>
+    <cellStyle name="40% - 强调文字颜色 5 3" xfId="290"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="291"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="292"/>
+    <cellStyle name="40% - 强调文字颜色 5 4 2" xfId="293"/>
+    <cellStyle name="40% - 强调文字颜色 5 5 2" xfId="294"/>
+    <cellStyle name="注释 2 2" xfId="295"/>
+    <cellStyle name="40% - 强调文字颜色 5 6" xfId="296"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="297"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="298"/>
+    <cellStyle name="常规 5 6" xfId="299"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="300"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="301"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 3 2" xfId="302"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 4" xfId="303"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 4 2" xfId="304"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 5" xfId="305"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 6" xfId="306"/>
+    <cellStyle name="40% - 强调文字颜色 6 3" xfId="307"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="308"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 3" xfId="309"/>
+    <cellStyle name="40% - 强调文字颜色 6 5 2" xfId="310"/>
+    <cellStyle name="40% - 强调文字颜色 6 6" xfId="311"/>
+    <cellStyle name="40% - 强调文字颜色 6 7" xfId="312"/>
+    <cellStyle name="常规 2" xfId="313"/>
+    <cellStyle name="常规 2 2" xfId="314"/>
+    <cellStyle name="常规 2 3" xfId="315"/>
+    <cellStyle name="常规 2 3 2" xfId="316"/>
+    <cellStyle name="常规 2 3 2 2 2" xfId="317"/>
+    <cellStyle name="常规 2 3 2 2 2 2" xfId="318"/>
+    <cellStyle name="常规 2 3 2 2 2 3" xfId="319"/>
+    <cellStyle name="常规 2 3 2 2 3" xfId="320"/>
+    <cellStyle name="常规 2 3 2 2 3 2" xfId="321"/>
+    <cellStyle name="注释 2 3 2" xfId="322"/>
+    <cellStyle name="常规 2 3 2 2 4" xfId="323"/>
+    <cellStyle name="常规 2 3 2 2 4 2" xfId="324"/>
+    <cellStyle name="常规 2 3 3" xfId="325"/>
+    <cellStyle name="常规 2 3 3 2" xfId="326"/>
+    <cellStyle name="常规 2 3 3 2 2" xfId="327"/>
+    <cellStyle name="常规 2 3 3 2 3" xfId="328"/>
+    <cellStyle name="注释 2 5" xfId="329"/>
+    <cellStyle name="常规 2 3 3 3 2" xfId="330"/>
+    <cellStyle name="常规 2 3 4" xfId="331"/>
+    <cellStyle name="常规 2 3 4 2" xfId="332"/>
+    <cellStyle name="常规 2 3 5" xfId="333"/>
+    <cellStyle name="常规 2 3 5 2" xfId="334"/>
+    <cellStyle name="常规 5 2 2 2" xfId="335"/>
+    <cellStyle name="常规 2 3 6" xfId="336"/>
+    <cellStyle name="常规 2 3 6 2" xfId="337"/>
+    <cellStyle name="常规 5 2 2 3" xfId="338"/>
+    <cellStyle name="常规 2 3 7" xfId="339"/>
+    <cellStyle name="常规 2 3 8" xfId="340"/>
+    <cellStyle name="常规 5 2 3 2" xfId="341"/>
+    <cellStyle name="常规 5 2 4 2" xfId="342"/>
+    <cellStyle name="常规 5 3" xfId="343"/>
+    <cellStyle name="常规 5 3 2" xfId="344"/>
+    <cellStyle name="常规 5 3 3" xfId="345"/>
+    <cellStyle name="常规 5 4" xfId="346"/>
+    <cellStyle name="常规 5 4 2" xfId="347"/>
+    <cellStyle name="常规 5 5" xfId="348"/>
+    <cellStyle name="常规 5 5 2" xfId="349"/>
+    <cellStyle name="注释 2 2 2" xfId="350"/>
+    <cellStyle name="注释 2 2 2 2" xfId="351"/>
+    <cellStyle name="注释 2 2 2 3" xfId="352"/>
+    <cellStyle name="注释 2 2 3" xfId="353"/>
+    <cellStyle name="注释 2 2 4" xfId="354"/>
+    <cellStyle name="注释 2 2 4 2" xfId="355"/>
+    <cellStyle name="注释 2 2 5" xfId="356"/>
+    <cellStyle name="注释 2 2 6" xfId="357"/>
+    <cellStyle name="注释 2 4" xfId="358"/>
+    <cellStyle name="注释 2 4 2" xfId="359"/>
+    <cellStyle name="注释 2 6" xfId="360"/>
+    <cellStyle name="注释 2 7" xfId="361"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <i val="0"/>
       </font>
       <fill>
@@ -1910,19 +2496,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
-    <tableStyle name="MySqlDefault" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -2207,19 +2785,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="C1:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="17.875" customWidth="1"/>
@@ -2228,13 +2806,14 @@
     <col min="8" max="8" width="17.25" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
     <col min="10" max="10" width="17.25" customWidth="1"/>
-    <col min="11" max="11" width="25.5" style="2" customWidth="1"/>
+    <col min="11" max="11" width="48.5" style="2" customWidth="1"/>
     <col min="12" max="12" width="19.875" customWidth="1"/>
     <col min="13" max="16" width="17.25" customWidth="1"/>
-    <col min="17" max="22" width="10.875" customWidth="1"/>
+    <col min="17" max="17" width="17.25" customWidth="1"/>
+    <col min="18" max="22" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:20" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" s="1" customFormat="1" ht="20.1" customHeight="1" spans="5:17">
       <c r="E1"/>
       <c r="H1"/>
       <c r="J1"/>
@@ -2244,9 +2823,10 @@
       <c r="N1"/>
       <c r="O1"/>
       <c r="P1"/>
+      <c r="Q1"/>
     </row>
-    <row r="2" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" ht="20.1" customHeight="1"/>
+    <row r="3" ht="20.1" customHeight="1" spans="3:17">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -2287,109 +2867,118 @@
         <v>12</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>75</v>
+        <v>13</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" ht="20.1" customHeight="1" spans="3:17">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>73</v>
+        <v>18</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>74</v>
+        <v>20</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>76</v>
+        <v>27</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="5" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" ht="20.1" customHeight="1" spans="3:17">
       <c r="C5" s="3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="6" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" ht="20.1" customHeight="1" spans="3:20">
       <c r="C6" s="6">
         <v>10001</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E6" s="6">
         <v>10002</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G6" s="8">
         <v>5000</v>
@@ -2404,7 +2993,7 @@
         <v>5</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="L6" s="6">
         <v>9000</v>
@@ -2421,20 +3010,21 @@
       <c r="P6" s="6">
         <v>420</v>
       </c>
-      <c r="T6" s="14"/>
+      <c r="Q6" s="6"/>
+      <c r="T6" s="12"/>
     </row>
-    <row r="7" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" ht="20.1" customHeight="1" spans="3:20">
       <c r="C7" s="6">
         <v>10002</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E7" s="6">
         <v>10003</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="G7" s="8">
         <v>6600</v>
@@ -2449,7 +3039,7 @@
         <v>6</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="L7" s="6">
         <v>11250</v>
@@ -2466,20 +3056,21 @@
       <c r="P7" s="6">
         <v>460</v>
       </c>
-      <c r="T7" s="14"/>
+      <c r="Q7" s="6"/>
+      <c r="T7" s="12"/>
     </row>
-    <row r="8" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" ht="20.1" customHeight="1" spans="3:20">
       <c r="C8" s="6">
         <v>10003</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E8" s="6">
         <v>10004</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="G8" s="8">
         <v>8400</v>
@@ -2494,7 +3085,7 @@
         <v>7</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="L8" s="6">
         <v>13500</v>
@@ -2511,20 +3102,21 @@
       <c r="P8" s="6">
         <v>500</v>
       </c>
-      <c r="T8" s="14"/>
+      <c r="Q8" s="6"/>
+      <c r="T8" s="12"/>
     </row>
-    <row r="9" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" ht="20.1" customHeight="1" spans="3:20">
       <c r="C9" s="6">
         <v>10004</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E9" s="6">
         <v>10005</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G9" s="8">
         <v>11700</v>
@@ -2539,7 +3131,7 @@
         <v>8</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="L9" s="6">
         <v>15750</v>
@@ -2556,20 +3148,21 @@
       <c r="P9" s="6">
         <v>540</v>
       </c>
-      <c r="T9" s="14"/>
+      <c r="Q9" s="6"/>
+      <c r="T9" s="12"/>
     </row>
-    <row r="10" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" ht="20.1" customHeight="1" spans="3:20">
       <c r="C10" s="6">
         <v>10005</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E10" s="6">
         <v>10006</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G10" s="8">
         <v>15400</v>
@@ -2584,7 +3177,7 @@
         <v>9</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="L10" s="6">
         <v>18000</v>
@@ -2601,20 +3194,21 @@
       <c r="P10" s="6">
         <v>580</v>
       </c>
-      <c r="T10" s="14"/>
+      <c r="Q10" s="6"/>
+      <c r="T10" s="12"/>
     </row>
-    <row r="11" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" ht="20.1" customHeight="1" spans="3:20">
       <c r="C11" s="6">
         <v>10006</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E11" s="6">
         <v>10007</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G11" s="8">
         <v>21000</v>
@@ -2629,7 +3223,7 @@
         <v>10</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="L11" s="6">
         <v>20250</v>
@@ -2646,20 +3240,21 @@
       <c r="P11" s="6">
         <v>630</v>
       </c>
-      <c r="T11" s="14"/>
+      <c r="Q11" s="6"/>
+      <c r="T11" s="12"/>
     </row>
-    <row r="12" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" ht="20.1" customHeight="1" spans="3:20">
       <c r="C12" s="6">
         <v>10007</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="E12" s="6">
         <v>10008</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G12" s="8">
         <v>27200</v>
@@ -2674,7 +3269,7 @@
         <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="L12" s="6">
         <v>22500</v>
@@ -2691,20 +3286,21 @@
       <c r="P12" s="6">
         <v>670</v>
       </c>
-      <c r="T12" s="14"/>
+      <c r="Q12" s="6"/>
+      <c r="T12" s="12"/>
     </row>
-    <row r="13" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" ht="20.1" customHeight="1" spans="3:20">
       <c r="C13" s="6">
         <v>10008</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="E13" s="6">
         <v>10009</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="G13" s="8">
         <v>35700</v>
@@ -2719,7 +3315,7 @@
         <v>12</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="L13" s="6">
         <v>24750</v>
@@ -2736,20 +3332,21 @@
       <c r="P13" s="6">
         <v>710</v>
       </c>
-      <c r="T13" s="14"/>
+      <c r="Q13" s="6"/>
+      <c r="T13" s="12"/>
     </row>
-    <row r="14" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" ht="20.1" customHeight="1" spans="3:20">
       <c r="C14" s="6">
         <v>10009</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="E14" s="6">
         <v>10010</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="G14" s="8">
         <v>45000</v>
@@ -2764,7 +3361,7 @@
         <v>13</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="L14" s="6">
         <v>27000</v>
@@ -2781,20 +3378,21 @@
       <c r="P14" s="6">
         <v>750</v>
       </c>
-      <c r="T14" s="14"/>
+      <c r="Q14" s="6"/>
+      <c r="T14" s="12"/>
     </row>
-    <row r="15" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" ht="20.1" customHeight="1" spans="3:20">
       <c r="C15" s="6">
         <v>10010</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E15" s="6">
         <v>10011</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="G15" s="8">
         <v>57000</v>
@@ -2809,7 +3407,7 @@
         <v>14</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="L15" s="6">
         <v>29250</v>
@@ -2826,20 +3424,21 @@
       <c r="P15" s="6">
         <v>790</v>
       </c>
-      <c r="T15" s="14"/>
+      <c r="Q15" s="6"/>
+      <c r="T15" s="12"/>
     </row>
-    <row r="16" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" ht="20.1" customHeight="1" spans="3:20">
       <c r="C16" s="6">
         <v>10011</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="E16" s="6">
         <v>10012</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="G16" s="8">
         <v>70000</v>
@@ -2854,7 +3453,7 @@
         <v>15</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="L16" s="6">
         <v>31500</v>
@@ -2871,20 +3470,21 @@
       <c r="P16" s="6">
         <v>830</v>
       </c>
-      <c r="T16" s="14"/>
+      <c r="Q16" s="6"/>
+      <c r="T16" s="12"/>
     </row>
-    <row r="17" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" ht="20.1" customHeight="1" spans="3:20">
       <c r="C17" s="6">
         <v>10012</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="E17" s="6">
         <v>10013</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="G17" s="8">
         <v>86100</v>
@@ -2899,7 +3499,7 @@
         <v>16</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="L17" s="6">
         <v>33750</v>
@@ -2916,20 +3516,21 @@
       <c r="P17" s="6">
         <v>880</v>
       </c>
-      <c r="T17" s="14"/>
+      <c r="Q17" s="6"/>
+      <c r="T17" s="12"/>
     </row>
-    <row r="18" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" ht="20.1" customHeight="1" spans="3:20">
       <c r="C18" s="6">
         <v>10013</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="E18" s="6">
         <v>10014</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="G18" s="8">
         <v>103400</v>
@@ -2944,7 +3545,7 @@
         <v>17</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="L18" s="6">
         <v>36000</v>
@@ -2961,20 +3562,21 @@
       <c r="P18" s="6">
         <v>920</v>
       </c>
-      <c r="T18" s="14"/>
+      <c r="Q18" s="6"/>
+      <c r="T18" s="12"/>
     </row>
-    <row r="19" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" ht="20.1" customHeight="1" spans="3:20">
       <c r="C19" s="6">
         <v>10014</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="E19" s="6">
         <v>10015</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="G19" s="8">
         <v>124200</v>
@@ -2989,7 +3591,7 @@
         <v>18</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="L19" s="6">
         <v>39000</v>
@@ -3006,20 +3608,21 @@
       <c r="P19" s="6">
         <v>960</v>
       </c>
-      <c r="T19" s="14"/>
+      <c r="Q19" s="6"/>
+      <c r="T19" s="12"/>
     </row>
-    <row r="20" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" ht="20.1" customHeight="1" spans="3:20">
       <c r="C20" s="6">
         <v>10015</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="E20" s="6">
         <v>10016</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="G20" s="8">
         <v>146400</v>
@@ -3034,7 +3637,7 @@
         <v>19</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="L20" s="6">
         <v>42000</v>
@@ -3051,20 +3654,21 @@
       <c r="P20" s="6">
         <v>1000</v>
       </c>
-      <c r="T20" s="14"/>
+      <c r="Q20" s="6"/>
+      <c r="T20" s="12"/>
     </row>
-    <row r="21" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" ht="20.1" customHeight="1" spans="3:20">
       <c r="C21" s="6">
         <v>10016</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="E21" s="6">
         <v>10017</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="G21" s="8">
         <v>172500</v>
@@ -3079,7 +3683,7 @@
         <v>20</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="L21" s="6">
         <v>45000</v>
@@ -3096,20 +3700,21 @@
       <c r="P21" s="6">
         <v>1040</v>
       </c>
-      <c r="T21" s="14"/>
+      <c r="Q21" s="6"/>
+      <c r="T21" s="12"/>
     </row>
-    <row r="22" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" ht="20.1" customHeight="1" spans="3:20">
       <c r="C22" s="6">
         <v>10017</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="E22" s="6">
         <v>10018</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="G22" s="8">
         <v>200200</v>
@@ -3124,7 +3729,7 @@
         <v>20</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="L22" s="6">
         <v>48000</v>
@@ -3141,20 +3746,21 @@
       <c r="P22" s="6">
         <v>1080</v>
       </c>
-      <c r="T22" s="14"/>
+      <c r="Q22" s="6"/>
+      <c r="T22" s="12"/>
     </row>
-    <row r="23" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" ht="20.1" customHeight="1" spans="3:20">
       <c r="C23" s="6">
         <v>10018</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="E23" s="6">
         <v>10019</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="G23" s="8">
         <v>232200</v>
@@ -3169,7 +3775,7 @@
         <v>20</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="L23" s="6">
         <v>52500</v>
@@ -3186,20 +3792,21 @@
       <c r="P23" s="6">
         <v>1130</v>
       </c>
-      <c r="T23" s="14"/>
+      <c r="Q23" s="6"/>
+      <c r="T23" s="12"/>
     </row>
-    <row r="24" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" ht="20.1" customHeight="1" spans="3:20">
       <c r="C24" s="6">
         <v>10019</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="E24" s="6">
         <v>10020</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="G24" s="8">
         <v>266000</v>
@@ -3214,7 +3821,7 @@
         <v>20</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="L24" s="6">
         <v>58500</v>
@@ -3231,20 +3838,21 @@
       <c r="P24" s="6">
         <v>1170</v>
       </c>
-      <c r="T24" s="14"/>
+      <c r="Q24" s="6"/>
+      <c r="T24" s="12"/>
     </row>
-    <row r="25" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" ht="20.1" customHeight="1" spans="3:20">
       <c r="C25" s="6">
         <v>10020</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="E25" s="6">
         <v>10021</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="G25" s="8">
         <v>304500</v>
@@ -3259,7 +3867,7 @@
         <v>20</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="L25" s="6">
         <v>63000</v>
@@ -3276,20 +3884,21 @@
       <c r="P25" s="6">
         <v>1210</v>
       </c>
-      <c r="T25" s="14"/>
+      <c r="Q25" s="6"/>
+      <c r="T25" s="12"/>
     </row>
-    <row r="26" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" ht="20.1" customHeight="1" spans="3:20">
       <c r="C26" s="6">
         <v>10021</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="E26" s="6">
         <v>10022</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="G26" s="8">
         <v>345000</v>
@@ -3304,7 +3913,7 @@
         <v>20</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="L26" s="6">
         <v>69000</v>
@@ -3321,20 +3930,21 @@
       <c r="P26" s="6">
         <v>1250</v>
       </c>
-      <c r="T26" s="14"/>
+      <c r="Q26" s="6"/>
+      <c r="T26" s="12"/>
     </row>
-    <row r="27" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" ht="20.1" customHeight="1" spans="3:20">
       <c r="C27" s="6">
         <v>10022</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="E27" s="6">
         <v>10023</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="G27" s="8">
         <v>393700</v>
@@ -3349,7 +3959,7 @@
         <v>20</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="L27" s="6">
         <v>72000</v>
@@ -3366,20 +3976,21 @@
       <c r="P27" s="6">
         <v>1290</v>
       </c>
-      <c r="T27" s="14"/>
+      <c r="Q27" s="6"/>
+      <c r="T27" s="12"/>
     </row>
-    <row r="28" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" ht="20.1" customHeight="1" spans="3:20">
       <c r="C28" s="6">
         <v>10023</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="E28" s="6">
         <v>10024</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="G28" s="8">
         <v>444800</v>
@@ -3394,7 +4005,7 @@
         <v>20</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="L28" s="6">
         <v>78000</v>
@@ -3411,20 +4022,21 @@
       <c r="P28" s="6">
         <v>1330</v>
       </c>
-      <c r="T28" s="14"/>
+      <c r="Q28" s="6"/>
+      <c r="T28" s="12"/>
     </row>
-    <row r="29" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" ht="20.1" customHeight="1" spans="3:20">
       <c r="C29" s="6">
         <v>10024</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="E29" s="6">
         <v>10025</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="G29" s="8">
         <v>508200</v>
@@ -3439,7 +4051,7 @@
         <v>20</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="L29" s="6">
         <v>82500</v>
@@ -3456,20 +4068,21 @@
       <c r="P29" s="6">
         <v>1380</v>
       </c>
-      <c r="T29" s="14"/>
+      <c r="Q29" s="6"/>
+      <c r="T29" s="12"/>
     </row>
-    <row r="30" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" ht="20.1" customHeight="1" spans="3:20">
       <c r="C30" s="6">
         <v>10025</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="E30" s="10">
         <v>0</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="G30" s="8">
         <v>0</v>
@@ -3484,7 +4097,7 @@
         <v>20</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="L30" s="6">
         <v>88500</v>
@@ -3501,11 +4114,12 @@
       <c r="P30" s="6">
         <v>1420</v>
       </c>
-      <c r="T30" s="14"/>
+      <c r="Q30" s="6"/>
+      <c r="T30" s="12"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/JiaYuanConfig.xlsx
+++ b/Excel/JiaYuanConfig.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F388441-6A58-49E5-A93E-1A5A31254F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="14085"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JiaYuanProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="122">
   <si>
     <t>Id</t>
   </si>
@@ -305,19 +311,88 @@
   </si>
   <si>
     <t>25</t>
+  </si>
+  <si>
+    <t>100403,100;100603,30;100803,30;100203,1000;119303,50;119403,50;119103,50;119203,50;105103,10;105303,10;105203,10;105403,10;105503,10;109503,50;110203,30;110103,50;120603,30;120703,30</t>
+  </si>
+  <si>
+    <t>100403,150;100603,45;100803,45;100203,1500;119303,75;119403,75;119103,75;119203,75;105103,15;105303,15;105203,15;105403,15;105503,15;109503,75;110203,45;110103,75;120603,45;120703,45</t>
+  </si>
+  <si>
+    <t>100403,200;100603,60;100803,60;100203,2000;119303,100;119403,100;119103,100;119203,100;105103,20;105303,20;105203,20;105403,20;105503,20;109503,100;110203,60;110103,100;120603,60;120703,60</t>
+  </si>
+  <si>
+    <t>100403,250;100603,75;100803,75;100203,2500;119303,125;119403,125;119103,125;119203,125;105103,25;105303,25;105203,25;105403,25;105503,25;109503,125;110203,75;110103,125;120603,75;120703,75</t>
+  </si>
+  <si>
+    <t>100403,300;100603,90;100803,90;100203,3000;119303,150;119403,150;119103,150;119203,150;105103,30;105303,30;105203,30;105403,30;105503,30;109503,150;110203,90;110103,150;120603,90;120703,90</t>
+  </si>
+  <si>
+    <t>100403,350;100603,105;100803,105;100203,3500;119303,175;119403,175;119103,175;119203,175;105103,35;105303,35;105203,35;105403,35;105503,35;109503,175;110203,105;110103,175;120603,105;120703,105</t>
+  </si>
+  <si>
+    <t>100403,400;100603,120;100803,120;100203,4000;119303,200;119403,200;119103,200;119203,200;105103,40;105303,40;105203,40;105403,40;105503,40;109503,200;110203,120;110103,200;120603,120;120703,120</t>
+  </si>
+  <si>
+    <t>100403,450;100603,135;100803,135;100203,4500;119303,225;119403,225;119103,225;119203,225;105103,45;105303,45;105203,45;105403,45;105503,45;109503,225;110203,135;110103,225;120603,135;120703,135</t>
+  </si>
+  <si>
+    <t>100403,500;100603,150;100803,150;100203,5000;119303,250;119403,250;119103,250;119203,250;105103,50;105303,50;105203,50;105403,50;105503,50;109503,250;110203,150;110103,250;120603,150;120703,150</t>
+  </si>
+  <si>
+    <t>100403,550;100603,165;100803,165;100203,5500;119303,275;119403,275;119103,275;119203,275;105103,55;105303,55;105203,55;105403,55;105503,55;109503,275;110203,165;110103,275;120603,165;120703,165</t>
+  </si>
+  <si>
+    <t>100403,600;100603,180;100803,180;100203,6000;119303,300;119403,300;119103,300;119203,300;105103,60;105303,60;105203,60;105403,60;105503,60;109503,300;110203,180;110103,300;120603,180;120703,180</t>
+  </si>
+  <si>
+    <t>100403,650;100603,195;100803,195;100203,6500;119303,325;119403,325;119103,325;119203,325;105103,65;105303,65;105203,65;105403,65;105503,65;109503,325;110203,195;110103,325;120603,195;120703,195</t>
+  </si>
+  <si>
+    <t>100403,700;100603,210;100803,210;100203,7000;119303,350;119403,350;119103,350;119203,350;105103,70;105303,70;105203,70;105403,70;105503,70;109503,350;110203,210;110103,350;120603,210;120703,210</t>
+  </si>
+  <si>
+    <t>100403,750;100603,225;100803,225;100203,7500;119303,375;119403,375;119103,375;119203,375;105103,75;105303,75;105203,75;105403,75;105503,75;109503,375;110203,225;110103,375;120603,225;120703,225</t>
+  </si>
+  <si>
+    <t>100403,800;100603,240;100803,240;100203,8000;119303,400;119403,400;119103,400;119203,400;105103,80;105303,80;105203,80;105403,80;105503,80;109503,400;110203,240;110103,400;120603,240;120703,240</t>
+  </si>
+  <si>
+    <t>100403,850;100603,255;100803,255;100203,8500;119303,425;119403,425;119103,425;119203,425;105103,85;105303,85;105203,85;105403,85;105503,85;109503,425;110203,255;110103,425;120603,255;120703,255</t>
+  </si>
+  <si>
+    <t>100403,900;100603,270;100803,270;100203,9000;119303,450;119403,450;119103,450;119203,450;105103,90;105303,90;105203,90;105403,90;105503,90;109503,450;110203,270;110103,450;120603,270;120703,270</t>
+  </si>
+  <si>
+    <t>100403,950;100603,285;100803,285;100203,9500;119303,475;119403,475;119103,475;119203,475;105103,95;105303,95;105203,95;105403,95;105503,95;109503,475;110203,285;110103,475;120603,285;120703,285</t>
+  </si>
+  <si>
+    <t>100403,1000;100603,300;100803,300;100203,10000;119303,500;119403,500;119103,500;119203,500;105103,100;105303,100;105203,100;105403,100;105503,100;109503,500;110203,300;110103,500;120603,300;120703,300</t>
+  </si>
+  <si>
+    <t>100403,1050;100603,315;100803,315;100203,10500;119303,525;119403,525;119103,525;119203,525;105103,105;105303,105;105203,105;105403,105;105503,105;109503,525;110203,315;110103,525;120603,315;120703,315</t>
+  </si>
+  <si>
+    <t>100403,1100;100603,330;100803,330;100203,11000;119303,550;119403,550;119103,550;119203,550;105103,110;105303,110;105203,110;105403,110;105503,110;109503,550;110203,330;110103,550;120603,330;120703,330</t>
+  </si>
+  <si>
+    <t>100403,1150;100603,345;100803,345;100203,11500;119303,575;119403,575;119103,575;119203,575;105103,115;105303,115;105203,115;105403,115;105503,115;109503,575;110203,345;110103,575;120603,345;120703,345</t>
+  </si>
+  <si>
+    <t>100403,1200;100603,360;100803,360;100203,12000;119303,600;119403,600;119103,600;119203,600;105103,120;105303,120;105203,120;105403,120;105503,120;109503,600;110203,360;110103,600;120603,360;120703,360</t>
+  </si>
+  <si>
+    <t>100403,1250;100603,375;100803,375;100203,12500;119303,625;119403,625;119103,625;119203,625;105103,125;105303,125;105203,125;105403,125;105503,125;109503,625;110203,375;110103,625;120603,375;120703,375</t>
+  </si>
+  <si>
+    <t>100403,1300;100603,390;100803,390;100203,13000;119303,650;119403,650;119103,650;119203,650;105103,130;105303,130;105203,130;105403,130;105503,130;109503,650;110203,390;110103,650;120603,390;120703,390</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="30">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,25 +403,28 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -354,6 +432,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -361,180 +440,37 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="49">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -555,97 +491,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505"/>
+        <fgColor theme="0" tint="-0.14993743705557422"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799920651875362"/>
+        <fgColor theme="7" tint="0.79989013336588644"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.79989013336588644"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799920651875362"/>
+        <fgColor theme="5" tint="0.79989013336588644"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.79989013336588644"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799920651875362"/>
+        <fgColor theme="4" tint="0.79989013336588644"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799920651875362"/>
+        <fgColor theme="9" tint="0.79989013336588644"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799920651875362"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799920651875362"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,176 +573,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -881,7 +631,7 @@
         <color theme="1" tint="0.499984740745262"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="0.399945066682943"/>
+        <color theme="4" tint="0.39991454817346722"/>
       </top>
       <bottom style="hair">
         <color theme="1" tint="0.499984740745262"/>
@@ -900,48 +650,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -956,121 +664,32 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="362">
+  <cellStyleXfs count="314">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
@@ -1079,324 +698,216 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1409,43 +920,55 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1492,7 +1015,7 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1501,37 +1024,103 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1546,388 +1135,322 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
@@ -1953,128 +1476,128 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2083,10 +1606,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2108,375 +1631,330 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="362">
+  <cellStyles count="314">
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 3" xfId="17" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="27" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="48" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="51" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="54" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3" xfId="36" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="59" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 4" xfId="29" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 4 2" xfId="61" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 5" xfId="21" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 5 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 6" xfId="63" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 7" xfId="64" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="65" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="66" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="68" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 3" xfId="70" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="71" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 3 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="74" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 4 2" xfId="76" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="77" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="79" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="80" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="81" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="82" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 4" xfId="83" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 4 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 5" xfId="84" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 5 2" xfId="85" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 6" xfId="67" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 7" xfId="69" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2 2" xfId="88" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2 3" xfId="89" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="90" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 3 2" xfId="91" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 4" xfId="92" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 4 2" xfId="93" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 5" xfId="94" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 6" xfId="95" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="28" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="96" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 4" xfId="97" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 4 2" xfId="98" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 5" xfId="99" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 5 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 6" xfId="72" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 7" xfId="101" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="103" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="104" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="105" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2 3" xfId="106" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="107" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 3 2" xfId="108" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 4" xfId="109" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 4 2" xfId="110" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="111" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="112" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="114" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="115" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="116" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 4" xfId="118" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 4 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 5" xfId="8" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 5 2" xfId="120" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 6" xfId="75" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 7" xfId="121" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="122" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="123" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="125" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2 3" xfId="126" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="127" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 3 2" xfId="129" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="130" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 4 2" xfId="133" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 5" xfId="134" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 6" xfId="135" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3" xfId="136" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="137" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="12" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 4" xfId="138" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 4 2" xfId="139" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 5" xfId="140" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 5 2" xfId="141" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 6" xfId="142" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 7" xfId="143" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="144" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="146" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="148" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2 3" xfId="149" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="151" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 3 2" xfId="153" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="155" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 4 2" xfId="156" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="132" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="157" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3" xfId="158" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="160" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="162" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 4" xfId="163" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 4 2" xfId="165" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 5" xfId="167" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 5 2" xfId="169" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 6" xfId="171" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 7" xfId="173" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="174" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="177" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="178" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 3" xfId="180" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="181" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 3 2" xfId="78" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 4" xfId="182" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 4 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 5" xfId="183" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 6" xfId="184" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3" xfId="185" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="186" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 3" xfId="187" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 4" xfId="188" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 4 2" xfId="189" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 5" xfId="190" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 5 2" xfId="191" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 6" xfId="192" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 7" xfId="193" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2 2" xfId="194" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2 3" xfId="195" xr:uid="{00000000-0005-0000-0000-0000F3000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="196" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 3 2" xfId="197" xr:uid="{00000000-0005-0000-0000-0000F5000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 4" xfId="199" xr:uid="{00000000-0005-0000-0000-0000F7000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 4 2" xfId="200" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 5" xfId="201" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 6" xfId="203" xr:uid="{00000000-0005-0000-0000-0000FB000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3" xfId="47" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 3" xfId="204" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 4" xfId="50" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 4 2" xfId="205" xr:uid="{00000000-0005-0000-0000-0000FD000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 5" xfId="53" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 5 2" xfId="206" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 6" xfId="207" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 7" xfId="124" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="58" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="209" xr:uid="{00000000-0005-0000-0000-000001010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="211" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 3" xfId="213" xr:uid="{00000000-0005-0000-0000-000005010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="214" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 3 2" xfId="215" xr:uid="{00000000-0005-0000-0000-000007010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 4" xfId="210" xr:uid="{00000000-0005-0000-0000-000002010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 4 2" xfId="216" xr:uid="{00000000-0005-0000-0000-000008010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="212" xr:uid="{00000000-0005-0000-0000-000004010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 6" xfId="217" xr:uid="{00000000-0005-0000-0000-000009010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3" xfId="219" xr:uid="{00000000-0005-0000-0000-00000B010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="220" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="19" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 4" xfId="222" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 4 2" xfId="223" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 5" xfId="224" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 5 2" xfId="225" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 6" xfId="226" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 7" xfId="128" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="227" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2 2" xfId="228" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2 3" xfId="229" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="230" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 3 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 4" xfId="231" xr:uid="{00000000-0005-0000-0000-000017010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 4 2" xfId="232" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 5" xfId="233" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 6" xfId="234" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3" xfId="235" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 3" xfId="35" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 4" xfId="145" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 4 2" xfId="147" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 5" xfId="150" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 5 2" xfId="152" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 6" xfId="154" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 7" xfId="131" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="236" xr:uid="{00000000-0005-0000-0000-00001C010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="166" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="168" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 3" xfId="237" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="170" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 3 2" xfId="238" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 4" xfId="172" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 4 2" xfId="239" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 5" xfId="240" xr:uid="{00000000-0005-0000-0000-000020010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 6" xfId="241" xr:uid="{00000000-0005-0000-0000-000021010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 3" xfId="242" xr:uid="{00000000-0005-0000-0000-000022010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="243" xr:uid="{00000000-0005-0000-0000-000023010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="244" xr:uid="{00000000-0005-0000-0000-000024010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 4" xfId="159" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 4 2" xfId="245" xr:uid="{00000000-0005-0000-0000-000025010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 5" xfId="161" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 5 2" xfId="246" xr:uid="{00000000-0005-0000-0000-000026010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 6" xfId="248" xr:uid="{00000000-0005-0000-0000-000028010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 7" xfId="23" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="249" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="250" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="252" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 3" xfId="176" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="253" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 3 2" xfId="254" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 4" xfId="255" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 4 2" xfId="256" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 5" xfId="257" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 6" xfId="258" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 3" xfId="259" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="260" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 3" xfId="261" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 4" xfId="164" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 4 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 5" xfId="24" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 5 2" xfId="262" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 6" xfId="263" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 7" xfId="264" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="2"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 4 2" xfId="5"/>
-    <cellStyle name="货币" xfId="6" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
-    <cellStyle name="差" xfId="9" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
-    <cellStyle name="常规 5 2 5" xfId="11"/>
-    <cellStyle name="常规 2 3 2 3 2" xfId="12"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 2" xfId="13"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="14" builtinId="40"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8"/>
-    <cellStyle name="百分比" xfId="16" builtinId="5"/>
-    <cellStyle name="40% - 强调文字颜色 6 4 2" xfId="17"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9"/>
-    <cellStyle name="常规 6" xfId="19"/>
-    <cellStyle name="20% - 强调文字颜色 4 5" xfId="20"/>
-    <cellStyle name="注释" xfId="21" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="22" builtinId="36"/>
-    <cellStyle name="常规 5 2 4" xfId="23"/>
-    <cellStyle name="标题 4" xfId="24" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="25" builtinId="11"/>
-    <cellStyle name="常规 5 2" xfId="26"/>
-    <cellStyle name="20% - 强调文字颜色 4 4 2" xfId="27"/>
-    <cellStyle name="标题" xfId="28" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="29" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="30"/>
-    <cellStyle name="标题 1" xfId="31" builtinId="16"/>
-    <cellStyle name="常规 5 2 2" xfId="32"/>
-    <cellStyle name="标题 2" xfId="33" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="34" builtinId="32"/>
-    <cellStyle name="常规 5 2 3" xfId="35"/>
-    <cellStyle name="标题 3" xfId="36" builtinId="18"/>
-    <cellStyle name="常规 5 2 6" xfId="37"/>
-    <cellStyle name="常规 2 3 2 3 3" xfId="38"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 3" xfId="39"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="20% - 强调文字颜色 2 4 2" xfId="41"/>
-    <cellStyle name="输出" xfId="42" builtinId="21"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="43"/>
-    <cellStyle name="计算" xfId="44" builtinId="22"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="45"/>
-    <cellStyle name="检查单元格" xfId="46" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 1 5" xfId="47"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="48" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="49" builtinId="33"/>
-    <cellStyle name="注释 2 3" xfId="50"/>
-    <cellStyle name="40% - 强调文字颜色 5 7" xfId="51"/>
-    <cellStyle name="链接单元格" xfId="52" builtinId="24"/>
-    <cellStyle name="40% - 强调文字颜色 6 5" xfId="53"/>
-    <cellStyle name="汇总" xfId="54" builtinId="25"/>
-    <cellStyle name="好" xfId="55" builtinId="26"/>
-    <cellStyle name="常规 2 3 2 4" xfId="56"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="57"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="58"/>
-    <cellStyle name="20% - 强调文字颜色 3 3" xfId="59"/>
-    <cellStyle name="适中" xfId="60" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 1 4" xfId="61"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="62" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 3 2" xfId="63"/>
-    <cellStyle name="强调文字颜色 1" xfId="64" builtinId="29"/>
-    <cellStyle name="注释 2 3 3" xfId="65"/>
-    <cellStyle name="常规 2 3 2 2 5" xfId="66"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="67" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="68"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="69" builtinId="31"/>
-    <cellStyle name="常规 2 3 2 2 6" xfId="70"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="71" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 3" xfId="72"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="73" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="74" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="75" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 1 3" xfId="76"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="77" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="78" builtinId="43"/>
-    <cellStyle name="常规 2 3 2 5 2" xfId="79"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="80"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 4 2" xfId="81"/>
-    <cellStyle name="强调文字颜色 5" xfId="82" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="83" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="84" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="85" builtinId="49"/>
-    <cellStyle name="常规 2 3 2 4 2" xfId="86"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="87"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3 2" xfId="88"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="89"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="90" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="91" builtinId="52"/>
-    <cellStyle name="常规 2 3 2 3" xfId="92"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="93"/>
-    <cellStyle name="常规 2 3 2 5" xfId="94"/>
-    <cellStyle name="40% - 强调文字颜色 2 3" xfId="95"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="96"/>
-    <cellStyle name="常规 2 3 2 6" xfId="97"/>
-    <cellStyle name="40% - 强调文字颜色 2 4" xfId="98"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="99"/>
-    <cellStyle name="常规 2 3 2 7" xfId="100"/>
-    <cellStyle name="40% - 强调文字颜色 2 5" xfId="101"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="102"/>
-    <cellStyle name="常规 2 3 3 3" xfId="103"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="104"/>
-    <cellStyle name="常规 2 3 3 4" xfId="105"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="106"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="107"/>
-    <cellStyle name="常规 2 3 4 3" xfId="108"/>
-    <cellStyle name="20% - 强调文字颜色 1 4 2" xfId="109"/>
-    <cellStyle name="20% - 强调文字颜色 1 5 2" xfId="110"/>
-    <cellStyle name="20% - 强调文字颜色 1 6" xfId="111"/>
-    <cellStyle name="20% - 强调文字颜色 1 7" xfId="112"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="113"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="114"/>
-    <cellStyle name="20% - 强调文字颜色 2 6" xfId="115"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="116"/>
-    <cellStyle name="20% - 强调文字颜色 2 7" xfId="117"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2 3" xfId="118"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="119"/>
-    <cellStyle name="20% - 强调文字颜色 3 6" xfId="120"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 3 2" xfId="121"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="122"/>
-    <cellStyle name="20% - 强调文字颜色 4 6" xfId="123"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 4 2" xfId="124"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="125"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 3 2" xfId="126"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="127"/>
-    <cellStyle name="20% - 强调文字颜色 2 3" xfId="128"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="129"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="130"/>
-    <cellStyle name="20% - 强调文字颜色 2 4" xfId="131"/>
-    <cellStyle name="20% - 强调文字颜色 2 5" xfId="132"/>
-    <cellStyle name="20% - 强调文字颜色 2 5 2" xfId="133"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="134"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="135"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2 2" xfId="136"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2 3" xfId="137"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="138"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 3 2" xfId="139"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 4" xfId="140"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 4 2" xfId="141"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 5" xfId="142"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 6" xfId="143"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="144"/>
-    <cellStyle name="20% - 强调文字颜色 3 4" xfId="145"/>
-    <cellStyle name="20% - 强调文字颜色 3 4 2" xfId="146"/>
-    <cellStyle name="20% - 强调文字颜色 3 5" xfId="147"/>
-    <cellStyle name="20% - 强调文字颜色 3 5 2" xfId="148"/>
-    <cellStyle name="20% - 强调文字颜色 3 7" xfId="149"/>
-    <cellStyle name="常规 3" xfId="150"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="151"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="152"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="153"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2 3" xfId="154"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="155"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 3 2" xfId="156"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 4" xfId="157"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 4 2" xfId="158"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="159"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="160"/>
-    <cellStyle name="常规 4" xfId="161"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="162"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="163"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="164"/>
-    <cellStyle name="常规 5" xfId="165"/>
-    <cellStyle name="20% - 强调文字颜色 4 4" xfId="166"/>
-    <cellStyle name="注释 2" xfId="167"/>
-    <cellStyle name="20% - 强调文字颜色 4 5 2" xfId="168"/>
-    <cellStyle name="20% - 强调文字颜色 4 7" xfId="169"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="170"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="171"/>
-    <cellStyle name="40% - 强调文字颜色 2 7" xfId="172"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="173"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2 3" xfId="174"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="175"/>
-    <cellStyle name="40% - 强调文字颜色 3 7" xfId="176"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 3 2" xfId="177"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="178"/>
-    <cellStyle name="40% - 强调文字颜色 4 7" xfId="179"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="180"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 4 2" xfId="181"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 5" xfId="182"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 6" xfId="183"/>
-    <cellStyle name="20% - 强调文字颜色 5 3" xfId="184"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="185"/>
-    <cellStyle name="20% - 强调文字颜色 5 4" xfId="186"/>
-    <cellStyle name="20% - 强调文字颜色 5 4 2" xfId="187"/>
-    <cellStyle name="20% - 强调文字颜色 5 5" xfId="188"/>
-    <cellStyle name="20% - 强调文字颜色 5 5 2" xfId="189"/>
-    <cellStyle name="20% - 强调文字颜色 5 6" xfId="190"/>
-    <cellStyle name="20% - 强调文字颜色 5 7" xfId="191"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="192"/>
-    <cellStyle name="40% - 强调文字颜色 4 4" xfId="193"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="194"/>
-    <cellStyle name="40% - 强调文字颜色 4 4 2" xfId="195"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="196"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2 3" xfId="197"/>
-    <cellStyle name="40% - 强调文字颜色 4 5" xfId="198"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="199"/>
-    <cellStyle name="40% - 强调文字颜色 4 5 2" xfId="200"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 3 2" xfId="201"/>
-    <cellStyle name="40% - 强调文字颜色 4 6" xfId="202"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="203"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 4 2" xfId="204"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="205"/>
-    <cellStyle name="20% - 强调文字颜色 6 3" xfId="206"/>
-    <cellStyle name="40% - 强调文字颜色 5 4" xfId="207"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="208"/>
-    <cellStyle name="40% - 强调文字颜色 5 5" xfId="209"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="210"/>
-    <cellStyle name="20% - 强调文字颜色 6 4" xfId="211"/>
-    <cellStyle name="40% - 强调文字颜色 6 4" xfId="212"/>
-    <cellStyle name="20% - 强调文字颜色 6 4 2" xfId="213"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="214"/>
-    <cellStyle name="20% - 强调文字颜色 6 5" xfId="215"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="216"/>
-    <cellStyle name="20% - 强调文字颜色 6 5 2" xfId="217"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="218"/>
-    <cellStyle name="20% - 强调文字颜色 6 6" xfId="219"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 4" xfId="220"/>
-    <cellStyle name="20% - 强调文字颜色 6 7" xfId="221"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="222"/>
-    <cellStyle name="常规 5 7" xfId="223"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2 3" xfId="224"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="225"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="226"/>
-    <cellStyle name="注释 2 2 3 2" xfId="227"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2 3" xfId="228"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="229"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 4" xfId="230"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 5" xfId="231"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 6" xfId="232"/>
-    <cellStyle name="40% - 强调文字颜色 1 3" xfId="233"/>
-    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="234"/>
-    <cellStyle name="40% - 强调文字颜色 1 3 3" xfId="235"/>
-    <cellStyle name="40% - 强调文字颜色 1 4" xfId="236"/>
-    <cellStyle name="40% - 强调文字颜色 1 4 2" xfId="237"/>
-    <cellStyle name="40% - 强调文字颜色 1 5" xfId="238"/>
-    <cellStyle name="40% - 强调文字颜色 1 5 2" xfId="239"/>
-    <cellStyle name="40% - 强调文字颜色 1 6" xfId="240"/>
-    <cellStyle name="40% - 强调文字颜色 1 7" xfId="241"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2 2" xfId="242"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2 3" xfId="243"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="244"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 3 2" xfId="245"/>
-    <cellStyle name="注释 2 5 2" xfId="246"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 4" xfId="247"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 4 2" xfId="248"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 5" xfId="249"/>
-    <cellStyle name="常规 2 3 2 2" xfId="250"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 6" xfId="251"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 3" xfId="252"/>
-    <cellStyle name="40% - 强调文字颜色 2 4 2" xfId="253"/>
-    <cellStyle name="40% - 强调文字颜色 2 5 2" xfId="254"/>
-    <cellStyle name="40% - 强调文字颜色 2 6" xfId="255"/>
-    <cellStyle name="常规 2 3 3 4 2" xfId="256"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="257"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 4" xfId="258"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="259"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="260"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 3" xfId="261"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="262"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 3 2" xfId="263"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 4 2" xfId="264"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 6" xfId="265"/>
-    <cellStyle name="常规 2 3 3 5" xfId="266"/>
-    <cellStyle name="40% - 强调文字颜色 3 3" xfId="267"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="268"/>
-    <cellStyle name="常规 2 3 3 6" xfId="269"/>
-    <cellStyle name="40% - 强调文字颜色 3 4" xfId="270"/>
-    <cellStyle name="40% - 强调文字颜色 3 4 2" xfId="271"/>
-    <cellStyle name="40% - 强调文字颜色 3 5" xfId="272"/>
-    <cellStyle name="40% - 强调文字颜色 3 5 2" xfId="273"/>
-    <cellStyle name="40% - 强调文字颜色 3 6" xfId="274"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="275"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2 2" xfId="276"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2 3" xfId="277"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="278"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 4" xfId="279"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 4 2" xfId="280"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 5" xfId="281"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 6" xfId="282"/>
-    <cellStyle name="40% - 强调文字颜色 4 3" xfId="283"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="284"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2 3" xfId="285"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 3 2" xfId="286"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 4 2" xfId="287"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 5" xfId="288"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 6" xfId="289"/>
-    <cellStyle name="40% - 强调文字颜色 5 3" xfId="290"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="291"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="292"/>
-    <cellStyle name="40% - 强调文字颜色 5 4 2" xfId="293"/>
-    <cellStyle name="40% - 强调文字颜色 5 5 2" xfId="294"/>
-    <cellStyle name="注释 2 2" xfId="295"/>
-    <cellStyle name="40% - 强调文字颜色 5 6" xfId="296"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="297"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="298"/>
-    <cellStyle name="常规 5 6" xfId="299"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="300"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="301"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 3 2" xfId="302"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 4" xfId="303"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 4 2" xfId="304"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 5" xfId="305"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 6" xfId="306"/>
-    <cellStyle name="40% - 强调文字颜色 6 3" xfId="307"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="308"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 3" xfId="309"/>
-    <cellStyle name="40% - 强调文字颜色 6 5 2" xfId="310"/>
-    <cellStyle name="40% - 强调文字颜色 6 6" xfId="311"/>
-    <cellStyle name="40% - 强调文字颜色 6 7" xfId="312"/>
-    <cellStyle name="常规 2" xfId="313"/>
-    <cellStyle name="常规 2 2" xfId="314"/>
-    <cellStyle name="常规 2 3" xfId="315"/>
-    <cellStyle name="常规 2 3 2" xfId="316"/>
-    <cellStyle name="常规 2 3 2 2 2" xfId="317"/>
-    <cellStyle name="常规 2 3 2 2 2 2" xfId="318"/>
-    <cellStyle name="常规 2 3 2 2 2 3" xfId="319"/>
-    <cellStyle name="常规 2 3 2 2 3" xfId="320"/>
-    <cellStyle name="常规 2 3 2 2 3 2" xfId="321"/>
-    <cellStyle name="注释 2 3 2" xfId="322"/>
-    <cellStyle name="常规 2 3 2 2 4" xfId="323"/>
-    <cellStyle name="常规 2 3 2 2 4 2" xfId="324"/>
-    <cellStyle name="常规 2 3 3" xfId="325"/>
-    <cellStyle name="常规 2 3 3 2" xfId="326"/>
-    <cellStyle name="常规 2 3 3 2 2" xfId="327"/>
-    <cellStyle name="常规 2 3 3 2 3" xfId="328"/>
-    <cellStyle name="注释 2 5" xfId="329"/>
-    <cellStyle name="常规 2 3 3 3 2" xfId="330"/>
-    <cellStyle name="常规 2 3 4" xfId="331"/>
-    <cellStyle name="常规 2 3 4 2" xfId="332"/>
-    <cellStyle name="常规 2 3 5" xfId="333"/>
-    <cellStyle name="常规 2 3 5 2" xfId="334"/>
-    <cellStyle name="常规 5 2 2 2" xfId="335"/>
-    <cellStyle name="常规 2 3 6" xfId="336"/>
-    <cellStyle name="常规 2 3 6 2" xfId="337"/>
-    <cellStyle name="常规 5 2 2 3" xfId="338"/>
-    <cellStyle name="常规 2 3 7" xfId="339"/>
-    <cellStyle name="常规 2 3 8" xfId="340"/>
-    <cellStyle name="常规 5 2 3 2" xfId="341"/>
-    <cellStyle name="常规 5 2 4 2" xfId="342"/>
-    <cellStyle name="常规 5 3" xfId="343"/>
-    <cellStyle name="常规 5 3 2" xfId="344"/>
-    <cellStyle name="常规 5 3 3" xfId="345"/>
-    <cellStyle name="常规 5 4" xfId="346"/>
-    <cellStyle name="常规 5 4 2" xfId="347"/>
-    <cellStyle name="常规 5 5" xfId="348"/>
-    <cellStyle name="常规 5 5 2" xfId="349"/>
-    <cellStyle name="注释 2 2 2" xfId="350"/>
-    <cellStyle name="注释 2 2 2 2" xfId="351"/>
-    <cellStyle name="注释 2 2 2 3" xfId="352"/>
-    <cellStyle name="注释 2 2 3" xfId="353"/>
-    <cellStyle name="注释 2 2 4" xfId="354"/>
-    <cellStyle name="注释 2 2 4 2" xfId="355"/>
-    <cellStyle name="注释 2 2 5" xfId="356"/>
-    <cellStyle name="注释 2 2 6" xfId="357"/>
-    <cellStyle name="注释 2 4" xfId="358"/>
-    <cellStyle name="注释 2 4 2" xfId="359"/>
-    <cellStyle name="注释 2 6" xfId="360"/>
-    <cellStyle name="注释 2 7" xfId="361"/>
+    <cellStyle name="常规 2" xfId="265" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
+    <cellStyle name="常规 2 2" xfId="266" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
+    <cellStyle name="常规 2 3" xfId="267" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
+    <cellStyle name="常规 2 3 2" xfId="268" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
+    <cellStyle name="常规 2 3 2 2" xfId="202" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
+    <cellStyle name="常规 2 3 2 2 2" xfId="269" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
+    <cellStyle name="常规 2 3 2 2 2 2" xfId="270" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
+    <cellStyle name="常规 2 3 2 2 2 3" xfId="271" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
+    <cellStyle name="常规 2 3 2 2 3" xfId="272" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
+    <cellStyle name="常规 2 3 2 2 3 2" xfId="273" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
+    <cellStyle name="常规 2 3 2 2 4" xfId="275" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
+    <cellStyle name="常规 2 3 2 2 4 2" xfId="276" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
+    <cellStyle name="常规 2 3 2 2 5" xfId="32" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="常规 2 3 2 2 6" xfId="34" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="常规 2 3 2 3" xfId="44" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="常规 2 3 2 3 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="常规 2 3 2 3 3" xfId="16" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="常规 2 3 2 4" xfId="25" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="常规 2 3 2 4 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="常规 2 3 2 5" xfId="46" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="常规 2 3 2 5 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="常规 2 3 2 6" xfId="49" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="常规 2 3 2 7" xfId="52" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="常规 2 3 3" xfId="277" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
+    <cellStyle name="常规 2 3 3 2" xfId="278" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
+    <cellStyle name="常规 2 3 3 2 2" xfId="279" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
+    <cellStyle name="常规 2 3 3 2 3" xfId="280" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
+    <cellStyle name="常规 2 3 3 3" xfId="55" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="常规 2 3 3 3 2" xfId="282" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
+    <cellStyle name="常规 2 3 3 4" xfId="57" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="常规 2 3 3 4 2" xfId="208" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
+    <cellStyle name="常规 2 3 3 5" xfId="218" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
+    <cellStyle name="常规 2 3 3 6" xfId="221" xr:uid="{00000000-0005-0000-0000-00000D010000}"/>
+    <cellStyle name="常规 2 3 4" xfId="283" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
+    <cellStyle name="常规 2 3 4 2" xfId="284" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
+    <cellStyle name="常规 2 3 4 3" xfId="60" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="常规 2 3 5" xfId="285" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
+    <cellStyle name="常规 2 3 5 2" xfId="286" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
+    <cellStyle name="常规 2 3 6" xfId="288" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
+    <cellStyle name="常规 2 3 6 2" xfId="289" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
+    <cellStyle name="常规 2 3 7" xfId="291" xr:uid="{00000000-0005-0000-0000-000053010000}"/>
+    <cellStyle name="常规 2 3 8" xfId="292" xr:uid="{00000000-0005-0000-0000-000054010000}"/>
+    <cellStyle name="常规 3" xfId="102" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="常规 4" xfId="113" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
+    <cellStyle name="常规 5" xfId="117" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
+    <cellStyle name="常规 5 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="常规 5 2 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="常规 5 2 2 2" xfId="287" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
+    <cellStyle name="常规 5 2 2 3" xfId="290" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
+    <cellStyle name="常规 5 2 3" xfId="14" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="常规 5 2 3 2" xfId="293" xr:uid="{00000000-0005-0000-0000-000055010000}"/>
+    <cellStyle name="常规 5 2 4" xfId="9" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="常规 5 2 4 2" xfId="294" xr:uid="{00000000-0005-0000-0000-000056010000}"/>
+    <cellStyle name="常规 5 2 5" xfId="3" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="常规 5 2 6" xfId="15" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="常规 5 3" xfId="295" xr:uid="{00000000-0005-0000-0000-000057010000}"/>
+    <cellStyle name="常规 5 3 2" xfId="296" xr:uid="{00000000-0005-0000-0000-000058010000}"/>
+    <cellStyle name="常规 5 3 3" xfId="297" xr:uid="{00000000-0005-0000-0000-000059010000}"/>
+    <cellStyle name="常规 5 4" xfId="298" xr:uid="{00000000-0005-0000-0000-00005A010000}"/>
+    <cellStyle name="常规 5 4 2" xfId="299" xr:uid="{00000000-0005-0000-0000-00005B010000}"/>
+    <cellStyle name="常规 5 5" xfId="300" xr:uid="{00000000-0005-0000-0000-00005C010000}"/>
+    <cellStyle name="常规 5 5 2" xfId="301" xr:uid="{00000000-0005-0000-0000-00005D010000}"/>
+    <cellStyle name="常规 5 6" xfId="251" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
+    <cellStyle name="常规 5 7" xfId="175" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
+    <cellStyle name="常规 6" xfId="7" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="注释 2" xfId="119" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
+    <cellStyle name="注释 2 2" xfId="247" xr:uid="{00000000-0005-0000-0000-000027010000}"/>
+    <cellStyle name="注释 2 2 2" xfId="302" xr:uid="{00000000-0005-0000-0000-00005E010000}"/>
+    <cellStyle name="注释 2 2 2 2" xfId="303" xr:uid="{00000000-0005-0000-0000-00005F010000}"/>
+    <cellStyle name="注释 2 2 2 3" xfId="304" xr:uid="{00000000-0005-0000-0000-000060010000}"/>
+    <cellStyle name="注释 2 2 3" xfId="305" xr:uid="{00000000-0005-0000-0000-000061010000}"/>
+    <cellStyle name="注释 2 2 3 2" xfId="179" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
+    <cellStyle name="注释 2 2 4" xfId="306" xr:uid="{00000000-0005-0000-0000-000062010000}"/>
+    <cellStyle name="注释 2 2 4 2" xfId="307" xr:uid="{00000000-0005-0000-0000-000063010000}"/>
+    <cellStyle name="注释 2 2 5" xfId="308" xr:uid="{00000000-0005-0000-0000-000064010000}"/>
+    <cellStyle name="注释 2 2 6" xfId="309" xr:uid="{00000000-0005-0000-0000-000065010000}"/>
+    <cellStyle name="注释 2 3" xfId="22" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="注释 2 3 2" xfId="274" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
+    <cellStyle name="注释 2 3 3" xfId="31" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="注释 2 4" xfId="310" xr:uid="{00000000-0005-0000-0000-000066010000}"/>
+    <cellStyle name="注释 2 4 2" xfId="311" xr:uid="{00000000-0005-0000-0000-000067010000}"/>
+    <cellStyle name="注释 2 5" xfId="281" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
+    <cellStyle name="注释 2 5 2" xfId="198" xr:uid="{00000000-0005-0000-0000-0000F6000000}"/>
+    <cellStyle name="注释 2 6" xfId="312" xr:uid="{00000000-0005-0000-0000-000068010000}"/>
+    <cellStyle name="注释 2 7" xfId="313" xr:uid="{00000000-0005-0000-0000-000069010000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <i val="0"/>
       </font>
       <fill>
@@ -2496,11 +1974,19 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
-    <tableStyle name="MySqlDefault" count="2">
+    <tableStyle name="MySqlDefault" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2785,19 +2271,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="C1:T30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C1:T40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="17.875" customWidth="1"/>
@@ -2809,11 +2295,11 @@
     <col min="11" max="11" width="48.5" style="2" customWidth="1"/>
     <col min="12" max="12" width="19.875" customWidth="1"/>
     <col min="13" max="16" width="17.25" customWidth="1"/>
-    <col min="17" max="17" width="17.25" customWidth="1"/>
+    <col min="17" max="17" width="28.375" customWidth="1"/>
     <col min="18" max="22" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20.1" customHeight="1" spans="5:17">
+    <row r="1" spans="3:20" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E1"/>
       <c r="H1"/>
       <c r="J1"/>
@@ -2825,8 +2311,8 @@
       <c r="P1"/>
       <c r="Q1"/>
     </row>
-    <row r="2" ht="20.1" customHeight="1"/>
-    <row r="3" ht="20.1" customHeight="1" spans="3:17">
+    <row r="2" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -2873,7 +2359,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" ht="20.1" customHeight="1" spans="3:17">
+    <row r="4" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -2920,7 +2406,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" ht="20.1" customHeight="1" spans="3:17">
+    <row r="5" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
         <v>29</v>
       </c>
@@ -2967,7 +2453,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" ht="20.1" customHeight="1" spans="3:20">
+    <row r="6" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="6">
         <v>10001</v>
       </c>
@@ -3010,10 +2496,12 @@
       <c r="P6" s="6">
         <v>420</v>
       </c>
-      <c r="Q6" s="6"/>
+      <c r="Q6" s="13" t="s">
+        <v>97</v>
+      </c>
       <c r="T6" s="12"/>
     </row>
-    <row r="7" ht="20.1" customHeight="1" spans="3:20">
+    <row r="7" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="6">
         <v>10002</v>
       </c>
@@ -3056,10 +2544,12 @@
       <c r="P7" s="6">
         <v>460</v>
       </c>
-      <c r="Q7" s="6"/>
+      <c r="Q7" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="T7" s="12"/>
     </row>
-    <row r="8" ht="20.1" customHeight="1" spans="3:20">
+    <row r="8" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="6">
         <v>10003</v>
       </c>
@@ -3102,10 +2592,12 @@
       <c r="P8" s="6">
         <v>500</v>
       </c>
-      <c r="Q8" s="6"/>
+      <c r="Q8" s="13" t="s">
+        <v>99</v>
+      </c>
       <c r="T8" s="12"/>
     </row>
-    <row r="9" ht="20.1" customHeight="1" spans="3:20">
+    <row r="9" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="6">
         <v>10004</v>
       </c>
@@ -3148,10 +2640,12 @@
       <c r="P9" s="6">
         <v>540</v>
       </c>
-      <c r="Q9" s="6"/>
+      <c r="Q9" s="13" t="s">
+        <v>100</v>
+      </c>
       <c r="T9" s="12"/>
     </row>
-    <row r="10" ht="20.1" customHeight="1" spans="3:20">
+    <row r="10" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="6">
         <v>10005</v>
       </c>
@@ -3194,10 +2688,12 @@
       <c r="P10" s="6">
         <v>580</v>
       </c>
-      <c r="Q10" s="6"/>
+      <c r="Q10" s="13" t="s">
+        <v>101</v>
+      </c>
       <c r="T10" s="12"/>
     </row>
-    <row r="11" ht="20.1" customHeight="1" spans="3:20">
+    <row r="11" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="6">
         <v>10006</v>
       </c>
@@ -3240,10 +2736,12 @@
       <c r="P11" s="6">
         <v>630</v>
       </c>
-      <c r="Q11" s="6"/>
+      <c r="Q11" s="13" t="s">
+        <v>102</v>
+      </c>
       <c r="T11" s="12"/>
     </row>
-    <row r="12" ht="20.1" customHeight="1" spans="3:20">
+    <row r="12" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="6">
         <v>10007</v>
       </c>
@@ -3286,10 +2784,12 @@
       <c r="P12" s="6">
         <v>670</v>
       </c>
-      <c r="Q12" s="6"/>
+      <c r="Q12" s="13" t="s">
+        <v>103</v>
+      </c>
       <c r="T12" s="12"/>
     </row>
-    <row r="13" ht="20.1" customHeight="1" spans="3:20">
+    <row r="13" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="6">
         <v>10008</v>
       </c>
@@ -3332,10 +2832,12 @@
       <c r="P13" s="6">
         <v>710</v>
       </c>
-      <c r="Q13" s="6"/>
+      <c r="Q13" s="13" t="s">
+        <v>104</v>
+      </c>
       <c r="T13" s="12"/>
     </row>
-    <row r="14" ht="20.1" customHeight="1" spans="3:20">
+    <row r="14" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="6">
         <v>10009</v>
       </c>
@@ -3378,10 +2880,12 @@
       <c r="P14" s="6">
         <v>750</v>
       </c>
-      <c r="Q14" s="6"/>
+      <c r="Q14" s="13" t="s">
+        <v>105</v>
+      </c>
       <c r="T14" s="12"/>
     </row>
-    <row r="15" ht="20.1" customHeight="1" spans="3:20">
+    <row r="15" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="6">
         <v>10010</v>
       </c>
@@ -3424,10 +2928,12 @@
       <c r="P15" s="6">
         <v>790</v>
       </c>
-      <c r="Q15" s="6"/>
+      <c r="Q15" s="13" t="s">
+        <v>106</v>
+      </c>
       <c r="T15" s="12"/>
     </row>
-    <row r="16" ht="20.1" customHeight="1" spans="3:20">
+    <row r="16" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="6">
         <v>10011</v>
       </c>
@@ -3470,10 +2976,12 @@
       <c r="P16" s="6">
         <v>830</v>
       </c>
-      <c r="Q16" s="6"/>
+      <c r="Q16" s="13" t="s">
+        <v>107</v>
+      </c>
       <c r="T16" s="12"/>
     </row>
-    <row r="17" ht="20.1" customHeight="1" spans="3:20">
+    <row r="17" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="6">
         <v>10012</v>
       </c>
@@ -3516,10 +3024,12 @@
       <c r="P17" s="6">
         <v>880</v>
       </c>
-      <c r="Q17" s="6"/>
+      <c r="Q17" s="13" t="s">
+        <v>108</v>
+      </c>
       <c r="T17" s="12"/>
     </row>
-    <row r="18" ht="20.1" customHeight="1" spans="3:20">
+    <row r="18" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="6">
         <v>10013</v>
       </c>
@@ -3562,10 +3072,12 @@
       <c r="P18" s="6">
         <v>920</v>
       </c>
-      <c r="Q18" s="6"/>
+      <c r="Q18" s="13" t="s">
+        <v>109</v>
+      </c>
       <c r="T18" s="12"/>
     </row>
-    <row r="19" ht="20.1" customHeight="1" spans="3:20">
+    <row r="19" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="6">
         <v>10014</v>
       </c>
@@ -3608,10 +3120,12 @@
       <c r="P19" s="6">
         <v>960</v>
       </c>
-      <c r="Q19" s="6"/>
+      <c r="Q19" s="13" t="s">
+        <v>110</v>
+      </c>
       <c r="T19" s="12"/>
     </row>
-    <row r="20" ht="20.1" customHeight="1" spans="3:20">
+    <row r="20" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="6">
         <v>10015</v>
       </c>
@@ -3654,10 +3168,12 @@
       <c r="P20" s="6">
         <v>1000</v>
       </c>
-      <c r="Q20" s="6"/>
+      <c r="Q20" s="13" t="s">
+        <v>111</v>
+      </c>
       <c r="T20" s="12"/>
     </row>
-    <row r="21" ht="20.1" customHeight="1" spans="3:20">
+    <row r="21" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="6">
         <v>10016</v>
       </c>
@@ -3700,10 +3216,12 @@
       <c r="P21" s="6">
         <v>1040</v>
       </c>
-      <c r="Q21" s="6"/>
+      <c r="Q21" s="13" t="s">
+        <v>112</v>
+      </c>
       <c r="T21" s="12"/>
     </row>
-    <row r="22" ht="20.1" customHeight="1" spans="3:20">
+    <row r="22" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="6">
         <v>10017</v>
       </c>
@@ -3746,10 +3264,12 @@
       <c r="P22" s="6">
         <v>1080</v>
       </c>
-      <c r="Q22" s="6"/>
+      <c r="Q22" s="13" t="s">
+        <v>113</v>
+      </c>
       <c r="T22" s="12"/>
     </row>
-    <row r="23" ht="20.1" customHeight="1" spans="3:20">
+    <row r="23" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="6">
         <v>10018</v>
       </c>
@@ -3792,10 +3312,12 @@
       <c r="P23" s="6">
         <v>1130</v>
       </c>
-      <c r="Q23" s="6"/>
+      <c r="Q23" s="13" t="s">
+        <v>114</v>
+      </c>
       <c r="T23" s="12"/>
     </row>
-    <row r="24" ht="20.1" customHeight="1" spans="3:20">
+    <row r="24" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="6">
         <v>10019</v>
       </c>
@@ -3838,10 +3360,12 @@
       <c r="P24" s="6">
         <v>1170</v>
       </c>
-      <c r="Q24" s="6"/>
+      <c r="Q24" s="13" t="s">
+        <v>115</v>
+      </c>
       <c r="T24" s="12"/>
     </row>
-    <row r="25" ht="20.1" customHeight="1" spans="3:20">
+    <row r="25" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="6">
         <v>10020</v>
       </c>
@@ -3884,10 +3408,12 @@
       <c r="P25" s="6">
         <v>1210</v>
       </c>
-      <c r="Q25" s="6"/>
+      <c r="Q25" s="13" t="s">
+        <v>116</v>
+      </c>
       <c r="T25" s="12"/>
     </row>
-    <row r="26" ht="20.1" customHeight="1" spans="3:20">
+    <row r="26" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="6">
         <v>10021</v>
       </c>
@@ -3930,10 +3456,12 @@
       <c r="P26" s="6">
         <v>1250</v>
       </c>
-      <c r="Q26" s="6"/>
+      <c r="Q26" s="13" t="s">
+        <v>117</v>
+      </c>
       <c r="T26" s="12"/>
     </row>
-    <row r="27" ht="20.1" customHeight="1" spans="3:20">
+    <row r="27" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="6">
         <v>10022</v>
       </c>
@@ -3976,10 +3504,12 @@
       <c r="P27" s="6">
         <v>1290</v>
       </c>
-      <c r="Q27" s="6"/>
+      <c r="Q27" s="13" t="s">
+        <v>118</v>
+      </c>
       <c r="T27" s="12"/>
     </row>
-    <row r="28" ht="20.1" customHeight="1" spans="3:20">
+    <row r="28" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="6">
         <v>10023</v>
       </c>
@@ -4022,10 +3552,12 @@
       <c r="P28" s="6">
         <v>1330</v>
       </c>
-      <c r="Q28" s="6"/>
+      <c r="Q28" s="13" t="s">
+        <v>119</v>
+      </c>
       <c r="T28" s="12"/>
     </row>
-    <row r="29" ht="20.1" customHeight="1" spans="3:20">
+    <row r="29" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" s="6">
         <v>10024</v>
       </c>
@@ -4068,10 +3600,12 @@
       <c r="P29" s="6">
         <v>1380</v>
       </c>
-      <c r="Q29" s="6"/>
+      <c r="Q29" s="13" t="s">
+        <v>120</v>
+      </c>
       <c r="T29" s="12"/>
     </row>
-    <row r="30" ht="20.1" customHeight="1" spans="3:20">
+    <row r="30" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" s="6">
         <v>10025</v>
       </c>
@@ -4114,12 +3648,24 @@
       <c r="P30" s="6">
         <v>1420</v>
       </c>
-      <c r="Q30" s="6"/>
+      <c r="Q30" s="13" t="s">
+        <v>121</v>
+      </c>
       <c r="T30" s="12"/>
     </row>
+    <row r="31" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/JiaYuanConfig.xlsx
+++ b/Excel/JiaYuanConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F388441-6A58-49E5-A93E-1A5A31254F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2688E794-9338-4FFD-BDC5-80FE8AD54378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1725" yWindow="1230" windowWidth="26475" windowHeight="13830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JiaYuanProto" sheetId="1" r:id="rId1"/>
@@ -313,79 +313,79 @@
     <t>25</t>
   </si>
   <si>
-    <t>100403,100;100603,30;100803,30;100203,1000;119303,50;119403,50;119103,50;119203,50;105103,10;105303,10;105203,10;105403,10;105503,10;109503,50;110203,30;110103,50;120603,30;120703,30</t>
-  </si>
-  <si>
-    <t>100403,150;100603,45;100803,45;100203,1500;119303,75;119403,75;119103,75;119203,75;105103,15;105303,15;105203,15;105403,15;105503,15;109503,75;110203,45;110103,75;120603,45;120703,45</t>
-  </si>
-  <si>
-    <t>100403,200;100603,60;100803,60;100203,2000;119303,100;119403,100;119103,100;119203,100;105103,20;105303,20;105203,20;105403,20;105503,20;109503,100;110203,60;110103,100;120603,60;120703,60</t>
-  </si>
-  <si>
-    <t>100403,250;100603,75;100803,75;100203,2500;119303,125;119403,125;119103,125;119203,125;105103,25;105303,25;105203,25;105403,25;105503,25;109503,125;110203,75;110103,125;120603,75;120703,75</t>
-  </si>
-  <si>
-    <t>100403,300;100603,90;100803,90;100203,3000;119303,150;119403,150;119103,150;119203,150;105103,30;105303,30;105203,30;105403,30;105503,30;109503,150;110203,90;110103,150;120603,90;120703,90</t>
-  </si>
-  <si>
-    <t>100403,350;100603,105;100803,105;100203,3500;119303,175;119403,175;119103,175;119203,175;105103,35;105303,35;105203,35;105403,35;105503,35;109503,175;110203,105;110103,175;120603,105;120703,105</t>
-  </si>
-  <si>
-    <t>100403,400;100603,120;100803,120;100203,4000;119303,200;119403,200;119103,200;119203,200;105103,40;105303,40;105203,40;105403,40;105503,40;109503,200;110203,120;110103,200;120603,120;120703,120</t>
-  </si>
-  <si>
-    <t>100403,450;100603,135;100803,135;100203,4500;119303,225;119403,225;119103,225;119203,225;105103,45;105303,45;105203,45;105403,45;105503,45;109503,225;110203,135;110103,225;120603,135;120703,135</t>
-  </si>
-  <si>
-    <t>100403,500;100603,150;100803,150;100203,5000;119303,250;119403,250;119103,250;119203,250;105103,50;105303,50;105203,50;105403,50;105503,50;109503,250;110203,150;110103,250;120603,150;120703,150</t>
-  </si>
-  <si>
-    <t>100403,550;100603,165;100803,165;100203,5500;119303,275;119403,275;119103,275;119203,275;105103,55;105303,55;105203,55;105403,55;105503,55;109503,275;110203,165;110103,275;120603,165;120703,165</t>
-  </si>
-  <si>
-    <t>100403,600;100603,180;100803,180;100203,6000;119303,300;119403,300;119103,300;119203,300;105103,60;105303,60;105203,60;105403,60;105503,60;109503,300;110203,180;110103,300;120603,180;120703,180</t>
-  </si>
-  <si>
-    <t>100403,650;100603,195;100803,195;100203,6500;119303,325;119403,325;119103,325;119203,325;105103,65;105303,65;105203,65;105403,65;105503,65;109503,325;110203,195;110103,325;120603,195;120703,195</t>
-  </si>
-  <si>
-    <t>100403,700;100603,210;100803,210;100203,7000;119303,350;119403,350;119103,350;119203,350;105103,70;105303,70;105203,70;105403,70;105503,70;109503,350;110203,210;110103,350;120603,210;120703,210</t>
-  </si>
-  <si>
-    <t>100403,750;100603,225;100803,225;100203,7500;119303,375;119403,375;119103,375;119203,375;105103,75;105303,75;105203,75;105403,75;105503,75;109503,375;110203,225;110103,375;120603,225;120703,225</t>
-  </si>
-  <si>
-    <t>100403,800;100603,240;100803,240;100203,8000;119303,400;119403,400;119103,400;119203,400;105103,80;105303,80;105203,80;105403,80;105503,80;109503,400;110203,240;110103,400;120603,240;120703,240</t>
-  </si>
-  <si>
-    <t>100403,850;100603,255;100803,255;100203,8500;119303,425;119403,425;119103,425;119203,425;105103,85;105303,85;105203,85;105403,85;105503,85;109503,425;110203,255;110103,425;120603,255;120703,255</t>
-  </si>
-  <si>
-    <t>100403,900;100603,270;100803,270;100203,9000;119303,450;119403,450;119103,450;119203,450;105103,90;105303,90;105203,90;105403,90;105503,90;109503,450;110203,270;110103,450;120603,270;120703,270</t>
-  </si>
-  <si>
-    <t>100403,950;100603,285;100803,285;100203,9500;119303,475;119403,475;119103,475;119203,475;105103,95;105303,95;105203,95;105403,95;105503,95;109503,475;110203,285;110103,475;120603,285;120703,285</t>
-  </si>
-  <si>
-    <t>100403,1000;100603,300;100803,300;100203,10000;119303,500;119403,500;119103,500;119203,500;105103,100;105303,100;105203,100;105403,100;105503,100;109503,500;110203,300;110103,500;120603,300;120703,300</t>
-  </si>
-  <si>
-    <t>100403,1050;100603,315;100803,315;100203,10500;119303,525;119403,525;119103,525;119203,525;105103,105;105303,105;105203,105;105403,105;105503,105;109503,525;110203,315;110103,525;120603,315;120703,315</t>
-  </si>
-  <si>
-    <t>100403,1100;100603,330;100803,330;100203,11000;119303,550;119403,550;119103,550;119203,550;105103,110;105303,110;105203,110;105403,110;105503,110;109503,550;110203,330;110103,550;120603,330;120703,330</t>
-  </si>
-  <si>
-    <t>100403,1150;100603,345;100803,345;100203,11500;119303,575;119403,575;119103,575;119203,575;105103,115;105303,115;105203,115;105403,115;105503,115;109503,575;110203,345;110103,575;120603,345;120703,345</t>
-  </si>
-  <si>
-    <t>100403,1200;100603,360;100803,360;100203,12000;119303,600;119403,600;119103,600;119203,600;105103,120;105303,120;105203,120;105403,120;105503,120;109503,600;110203,360;110103,600;120603,360;120703,360</t>
-  </si>
-  <si>
-    <t>100403,1250;100603,375;100803,375;100203,12500;119303,625;119403,625;119103,625;119203,625;105103,125;105303,125;105203,125;105403,125;105503,125;109503,625;110203,375;110103,625;120603,375;120703,375</t>
-  </si>
-  <si>
-    <t>100403,1300;100603,390;100803,390;100203,13000;119303,650;119403,650;119103,650;119203,650;105103,130;105303,130;105203,130;105403,130;105503,130;109503,650;110203,390;110103,650;120603,390;120703,390</t>
+    <t>100403,100;100603,30;100803,30;100203,1000;119303,50;119403,50;119103,50;119203,50;105103,10;105303,10;105203,10;105403,10;105503,10;119503,50;110203,30;110103,50;120603,30;120703,30</t>
+  </si>
+  <si>
+    <t>100403,150;100603,45;100803,45;100203,1500;119303,75;119403,75;119103,75;119203,75;105103,15;105303,15;105203,15;105403,15;105503,15;119503,75;110203,45;110103,75;120603,45;120703,45</t>
+  </si>
+  <si>
+    <t>100403,200;100603,60;100803,60;100203,2000;119303,100;119403,100;119103,100;119203,100;105103,20;105303,20;105203,20;105403,20;105503,20;119503,100;110203,60;110103,100;120603,60;120703,60</t>
+  </si>
+  <si>
+    <t>100403,250;100603,75;100803,75;100203,2500;119303,125;119403,125;119103,125;119203,125;105103,25;105303,25;105203,25;105403,25;105503,25;119503,125;110203,75;110103,125;120603,75;120703,75</t>
+  </si>
+  <si>
+    <t>100403,300;100603,90;100803,90;100203,3000;119303,150;119403,150;119103,150;119203,150;105103,30;105303,30;105203,30;105403,30;105503,30;119503,150;110203,90;110103,150;120603,90;120703,90</t>
+  </si>
+  <si>
+    <t>100403,350;100603,105;100803,105;100203,3500;119303,175;119403,175;119103,175;119203,175;105103,35;105303,35;105203,35;105403,35;105503,35;119503,175;110203,105;110103,175;120603,105;120703,105</t>
+  </si>
+  <si>
+    <t>100403,400;100603,120;100803,120;100203,4000;119303,200;119403,200;119103,200;119203,200;105103,40;105303,40;105203,40;105403,40;105503,40;119503,200;110203,120;110103,200;120603,120;120703,120</t>
+  </si>
+  <si>
+    <t>100403,450;100603,135;100803,135;100203,4500;119303,225;119403,225;119103,225;119203,225;105103,45;105303,45;105203,45;105403,45;105503,45;119503,225;110203,135;110103,225;120603,135;120703,135</t>
+  </si>
+  <si>
+    <t>100403,500;100603,150;100803,150;100203,5000;119303,250;119403,250;119103,250;119203,250;105103,50;105303,50;105203,50;105403,50;105503,50;119503,250;110203,150;110103,250;120603,150;120703,150</t>
+  </si>
+  <si>
+    <t>100403,550;100603,165;100803,165;100203,5500;119303,275;119403,275;119103,275;119203,275;105103,55;105303,55;105203,55;105403,55;105503,55;119503,275;110203,165;110103,275;120603,165;120703,165</t>
+  </si>
+  <si>
+    <t>100403,600;100603,180;100803,180;100203,6000;119303,300;119403,300;119103,300;119203,300;105103,60;105303,60;105203,60;105403,60;105503,60;119503,300;110203,180;110103,300;120603,180;120703,180</t>
+  </si>
+  <si>
+    <t>100403,650;100603,195;100803,195;100203,6500;119303,325;119403,325;119103,325;119203,325;105103,65;105303,65;105203,65;105403,65;105503,65;119503,325;110203,195;110103,325;120603,195;120703,195</t>
+  </si>
+  <si>
+    <t>100403,700;100603,210;100803,210;100203,7000;119303,350;119403,350;119103,350;119203,350;105103,70;105303,70;105203,70;105403,70;105503,70;119503,350;110203,210;110103,350;120603,210;120703,210</t>
+  </si>
+  <si>
+    <t>100403,750;100603,225;100803,225;100203,7500;119303,375;119403,375;119103,375;119203,375;105103,75;105303,75;105203,75;105403,75;105503,75;119503,375;110203,225;110103,375;120603,225;120703,225</t>
+  </si>
+  <si>
+    <t>100403,800;100603,240;100803,240;100203,8000;119303,400;119403,400;119103,400;119203,400;105103,80;105303,80;105203,80;105403,80;105503,80;119503,400;110203,240;110103,400;120603,240;120703,240</t>
+  </si>
+  <si>
+    <t>100403,850;100603,255;100803,255;100203,8500;119303,425;119403,425;119103,425;119203,425;105103,85;105303,85;105203,85;105403,85;105503,85;119503,425;110203,255;110103,425;120603,255;120703,255</t>
+  </si>
+  <si>
+    <t>100403,900;100603,270;100803,270;100203,9000;119303,450;119403,450;119103,450;119203,450;105103,90;105303,90;105203,90;105403,90;105503,90;119503,450;110203,270;110103,450;120603,270;120703,270</t>
+  </si>
+  <si>
+    <t>100403,950;100603,285;100803,285;100203,9500;119303,475;119403,475;119103,475;119203,475;105103,95;105303,95;105203,95;105403,95;105503,95;119503,475;110203,285;110103,475;120603,285;120703,285</t>
+  </si>
+  <si>
+    <t>100403,1000;100603,300;100803,300;100203,10000;119303,500;119403,500;119103,500;119203,500;105103,100;105303,100;105203,100;105403,100;105503,100;119503,500;110203,300;110103,500;120603,300;120703,300</t>
+  </si>
+  <si>
+    <t>100403,1050;100603,315;100803,315;100203,10500;119303,525;119403,525;119103,525;119203,525;105103,105;105303,105;105203,105;105403,105;105503,105;119503,525;110203,315;110103,525;120603,315;120703,315</t>
+  </si>
+  <si>
+    <t>100403,1100;100603,330;100803,330;100203,11000;119303,550;119403,550;119103,550;119203,550;105103,110;105303,110;105203,110;105403,110;105503,110;119503,550;110203,330;110103,550;120603,330;120703,330</t>
+  </si>
+  <si>
+    <t>100403,1150;100603,345;100803,345;100203,11500;119303,575;119403,575;119103,575;119203,575;105103,115;105303,115;105203,115;105403,115;105503,115;119503,575;110203,345;110103,575;120603,345;120703,345</t>
+  </si>
+  <si>
+    <t>100403,1200;100603,360;100803,360;100203,12000;119303,600;119403,600;119103,600;119203,600;105103,120;105303,120;105203,120;105403,120;105503,120;119503,600;110203,360;110103,600;120603,360;120703,360</t>
+  </si>
+  <si>
+    <t>100403,1250;100603,375;100803,375;100203,12500;119303,625;119403,625;119103,625;119203,625;105103,125;105303,125;105203,125;105403,125;105503,125;119503,625;110203,375;110103,625;120603,375;120703,375</t>
+  </si>
+  <si>
+    <t>100403,1300;100603,390;100803,390;100203,13000;119303,650;119403,650;119103,650;119203,650;105103,130;105303,130;105203,130;105403,130;105503,130;119503,650;110203,390;110103,650;120603,390;120703,390</t>
   </si>
 </sst>
 </file>
@@ -2279,8 +2279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:T40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/JiaYuanConfig.xlsx
+++ b/Excel/JiaYuanConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2688E794-9338-4FFD-BDC5-80FE8AD54378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0BCE87-AA64-4AF7-B80D-8DFCE10C5E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1725" yWindow="1230" windowWidth="26475" windowHeight="13830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JiaYuanProto" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="125">
   <si>
     <t>Id</t>
   </si>
@@ -386,6 +386,18 @@
   </si>
   <si>
     <t>100403,1300;100603,390;100803,390;100203,13000;119303,650;119403,650;119103,650;119203,650;105103,130;105303,130;105203,130;105403,130;105503,130;119503,650;110203,390;110103,650;120603,390;120703,390</t>
+  </si>
+  <si>
+    <t>宠物栏位</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>PetNum</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2277,10 +2289,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:T40"/>
+  <dimension ref="C1:U40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2294,12 +2306,12 @@
     <col min="10" max="10" width="17.25" customWidth="1"/>
     <col min="11" max="11" width="48.5" style="2" customWidth="1"/>
     <col min="12" max="12" width="19.875" customWidth="1"/>
-    <col min="13" max="16" width="17.25" customWidth="1"/>
-    <col min="17" max="17" width="28.375" customWidth="1"/>
-    <col min="18" max="22" width="10.875" customWidth="1"/>
+    <col min="13" max="17" width="17.25" customWidth="1"/>
+    <col min="18" max="18" width="28.375" customWidth="1"/>
+    <col min="19" max="23" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:20" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E1"/>
       <c r="H1"/>
       <c r="J1"/>
@@ -2310,9 +2322,10 @@
       <c r="O1"/>
       <c r="P1"/>
       <c r="Q1"/>
+      <c r="R1"/>
     </row>
-    <row r="2" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -2356,10 +2369,13 @@
         <v>13</v>
       </c>
       <c r="Q3" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="R3" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -2403,10 +2419,13 @@
         <v>27</v>
       </c>
       <c r="Q4" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="R4" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
         <v>29</v>
       </c>
@@ -2450,10 +2469,13 @@
         <v>29</v>
       </c>
       <c r="Q5" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="R5" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="6">
         <v>10001</v>
       </c>
@@ -2496,12 +2518,15 @@
       <c r="P6" s="6">
         <v>420</v>
       </c>
-      <c r="Q6" s="13" t="s">
+      <c r="Q6" s="6">
+        <v>1</v>
+      </c>
+      <c r="R6" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
     </row>
-    <row r="7" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="6">
         <v>10002</v>
       </c>
@@ -2544,12 +2569,15 @@
       <c r="P7" s="6">
         <v>460</v>
       </c>
-      <c r="Q7" s="13" t="s">
+      <c r="Q7" s="6">
+        <v>1</v>
+      </c>
+      <c r="R7" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
     </row>
-    <row r="8" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="6">
         <v>10003</v>
       </c>
@@ -2592,12 +2620,15 @@
       <c r="P8" s="6">
         <v>500</v>
       </c>
-      <c r="Q8" s="13" t="s">
+      <c r="Q8" s="6">
+        <v>1</v>
+      </c>
+      <c r="R8" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
     </row>
-    <row r="9" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="6">
         <v>10004</v>
       </c>
@@ -2640,12 +2671,15 @@
       <c r="P9" s="6">
         <v>540</v>
       </c>
-      <c r="Q9" s="13" t="s">
+      <c r="Q9" s="6">
+        <v>1</v>
+      </c>
+      <c r="R9" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
     </row>
-    <row r="10" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="6">
         <v>10005</v>
       </c>
@@ -2688,12 +2722,15 @@
       <c r="P10" s="6">
         <v>580</v>
       </c>
-      <c r="Q10" s="13" t="s">
+      <c r="Q10" s="6">
+        <v>1</v>
+      </c>
+      <c r="R10" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
     </row>
-    <row r="11" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="6">
         <v>10006</v>
       </c>
@@ -2736,12 +2773,15 @@
       <c r="P11" s="6">
         <v>630</v>
       </c>
-      <c r="Q11" s="13" t="s">
+      <c r="Q11" s="6">
+        <v>2</v>
+      </c>
+      <c r="R11" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
     </row>
-    <row r="12" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="6">
         <v>10007</v>
       </c>
@@ -2784,12 +2824,15 @@
       <c r="P12" s="6">
         <v>670</v>
       </c>
-      <c r="Q12" s="13" t="s">
+      <c r="Q12" s="6">
+        <v>2</v>
+      </c>
+      <c r="R12" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
     </row>
-    <row r="13" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="6">
         <v>10008</v>
       </c>
@@ -2832,12 +2875,15 @@
       <c r="P13" s="6">
         <v>710</v>
       </c>
-      <c r="Q13" s="13" t="s">
+      <c r="Q13" s="6">
+        <v>2</v>
+      </c>
+      <c r="R13" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
     </row>
-    <row r="14" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="6">
         <v>10009</v>
       </c>
@@ -2880,12 +2926,15 @@
       <c r="P14" s="6">
         <v>750</v>
       </c>
-      <c r="Q14" s="13" t="s">
+      <c r="Q14" s="6">
+        <v>2</v>
+      </c>
+      <c r="R14" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
     </row>
-    <row r="15" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="6">
         <v>10010</v>
       </c>
@@ -2928,12 +2977,15 @@
       <c r="P15" s="6">
         <v>790</v>
       </c>
-      <c r="Q15" s="13" t="s">
+      <c r="Q15" s="6">
+        <v>2</v>
+      </c>
+      <c r="R15" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
     </row>
-    <row r="16" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="6">
         <v>10011</v>
       </c>
@@ -2976,12 +3028,15 @@
       <c r="P16" s="6">
         <v>830</v>
       </c>
-      <c r="Q16" s="13" t="s">
+      <c r="Q16" s="6">
+        <v>2</v>
+      </c>
+      <c r="R16" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
     </row>
-    <row r="17" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="6">
         <v>10012</v>
       </c>
@@ -3024,12 +3079,15 @@
       <c r="P17" s="6">
         <v>880</v>
       </c>
-      <c r="Q17" s="13" t="s">
+      <c r="Q17" s="6">
+        <v>3</v>
+      </c>
+      <c r="R17" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
     </row>
-    <row r="18" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="6">
         <v>10013</v>
       </c>
@@ -3072,12 +3130,15 @@
       <c r="P18" s="6">
         <v>920</v>
       </c>
-      <c r="Q18" s="13" t="s">
+      <c r="Q18" s="6">
+        <v>3</v>
+      </c>
+      <c r="R18" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
     </row>
-    <row r="19" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="6">
         <v>10014</v>
       </c>
@@ -3120,12 +3181,15 @@
       <c r="P19" s="6">
         <v>960</v>
       </c>
-      <c r="Q19" s="13" t="s">
+      <c r="Q19" s="6">
+        <v>3</v>
+      </c>
+      <c r="R19" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
     </row>
-    <row r="20" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="6">
         <v>10015</v>
       </c>
@@ -3168,12 +3232,15 @@
       <c r="P20" s="6">
         <v>1000</v>
       </c>
-      <c r="Q20" s="13" t="s">
+      <c r="Q20" s="6">
+        <v>3</v>
+      </c>
+      <c r="R20" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
     </row>
-    <row r="21" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="6">
         <v>10016</v>
       </c>
@@ -3216,12 +3283,15 @@
       <c r="P21" s="6">
         <v>1040</v>
       </c>
-      <c r="Q21" s="13" t="s">
+      <c r="Q21" s="6">
+        <v>3</v>
+      </c>
+      <c r="R21" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
     </row>
-    <row r="22" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="6">
         <v>10017</v>
       </c>
@@ -3264,12 +3334,15 @@
       <c r="P22" s="6">
         <v>1080</v>
       </c>
-      <c r="Q22" s="13" t="s">
+      <c r="Q22" s="6">
+        <v>3</v>
+      </c>
+      <c r="R22" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
     </row>
-    <row r="23" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="6">
         <v>10018</v>
       </c>
@@ -3312,12 +3385,15 @@
       <c r="P23" s="6">
         <v>1130</v>
       </c>
-      <c r="Q23" s="13" t="s">
+      <c r="Q23" s="6">
+        <v>4</v>
+      </c>
+      <c r="R23" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
     </row>
-    <row r="24" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="6">
         <v>10019</v>
       </c>
@@ -3360,12 +3436,15 @@
       <c r="P24" s="6">
         <v>1170</v>
       </c>
-      <c r="Q24" s="13" t="s">
+      <c r="Q24" s="6">
+        <v>4</v>
+      </c>
+      <c r="R24" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
     </row>
-    <row r="25" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="6">
         <v>10020</v>
       </c>
@@ -3408,12 +3487,15 @@
       <c r="P25" s="6">
         <v>1210</v>
       </c>
-      <c r="Q25" s="13" t="s">
+      <c r="Q25" s="6">
+        <v>4</v>
+      </c>
+      <c r="R25" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
     </row>
-    <row r="26" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="6">
         <v>10021</v>
       </c>
@@ -3456,12 +3538,15 @@
       <c r="P26" s="6">
         <v>1250</v>
       </c>
-      <c r="Q26" s="13" t="s">
+      <c r="Q26" s="6">
+        <v>4</v>
+      </c>
+      <c r="R26" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
     </row>
-    <row r="27" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="6">
         <v>10022</v>
       </c>
@@ -3504,12 +3589,15 @@
       <c r="P27" s="6">
         <v>1290</v>
       </c>
-      <c r="Q27" s="13" t="s">
+      <c r="Q27" s="6">
+        <v>5</v>
+      </c>
+      <c r="R27" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
     </row>
-    <row r="28" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="6">
         <v>10023</v>
       </c>
@@ -3552,12 +3640,15 @@
       <c r="P28" s="6">
         <v>1330</v>
       </c>
-      <c r="Q28" s="13" t="s">
+      <c r="Q28" s="6">
+        <v>5</v>
+      </c>
+      <c r="R28" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
     </row>
-    <row r="29" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" s="6">
         <v>10024</v>
       </c>
@@ -3600,12 +3691,15 @@
       <c r="P29" s="6">
         <v>1380</v>
       </c>
-      <c r="Q29" s="13" t="s">
+      <c r="Q29" s="6">
+        <v>5</v>
+      </c>
+      <c r="R29" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
     </row>
-    <row r="30" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" s="6">
         <v>10025</v>
       </c>
@@ -3648,13 +3742,16 @@
       <c r="P30" s="6">
         <v>1420</v>
       </c>
-      <c r="Q30" s="13" t="s">
+      <c r="Q30" s="6">
+        <v>6</v>
+      </c>
+      <c r="R30" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
     </row>
-    <row r="31" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Excel/JiaYuanConfig.xlsx
+++ b/Excel/JiaYuanConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0BCE87-AA64-4AF7-B80D-8DFCE10C5E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B9C3C1-B84B-4C83-AA1A-9342D16B2812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JiaYuanProto" sheetId="1" r:id="rId1"/>
@@ -2289,10 +2289,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:U40"/>
+  <dimension ref="C1:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2524,7 +2524,9 @@
       <c r="R6" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="U6" s="12"/>
+      <c r="U6" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="6">
@@ -2575,7 +2577,9 @@
       <c r="R7" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="U7" s="12"/>
+      <c r="U7" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="6">
@@ -2626,7 +2630,9 @@
       <c r="R8" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="U8" s="12"/>
+      <c r="U8" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="6">
@@ -2677,7 +2683,9 @@
       <c r="R9" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="U9" s="12"/>
+      <c r="U9" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="6">
@@ -2728,7 +2736,9 @@
       <c r="R10" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="U10" s="12"/>
+      <c r="U10" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="6">
@@ -2779,7 +2789,9 @@
       <c r="R11" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="U11" s="12"/>
+      <c r="U11" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="6">
@@ -2830,7 +2842,9 @@
       <c r="R12" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="U12" s="12"/>
+      <c r="U12" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="6">
@@ -2881,7 +2895,9 @@
       <c r="R13" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="U13" s="12"/>
+      <c r="U13" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="6">
@@ -2932,7 +2948,9 @@
       <c r="R14" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="U14" s="12"/>
+      <c r="U14" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="6">
@@ -2983,7 +3001,9 @@
       <c r="R15" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="U15" s="12"/>
+      <c r="U15" s="12">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="6">
@@ -3034,7 +3054,9 @@
       <c r="R16" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="U16" s="12"/>
+      <c r="U16" s="12">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="6">
@@ -3085,7 +3107,9 @@
       <c r="R17" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="U17" s="12"/>
+      <c r="U17" s="12">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="6">
@@ -3136,7 +3160,9 @@
       <c r="R18" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="U18" s="12"/>
+      <c r="U18" s="12">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="6">
@@ -3187,7 +3213,9 @@
       <c r="R19" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="U19" s="12"/>
+      <c r="U19" s="12">
+        <v>3</v>
+      </c>
     </row>
     <row r="20" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="6">
@@ -3238,7 +3266,9 @@
       <c r="R20" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="U20" s="12"/>
+      <c r="U20" s="12">
+        <v>4</v>
+      </c>
     </row>
     <row r="21" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="6">
@@ -3289,7 +3319,9 @@
       <c r="R21" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="U21" s="12"/>
+      <c r="U21" s="12">
+        <v>4</v>
+      </c>
     </row>
     <row r="22" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="6">
@@ -3340,7 +3372,9 @@
       <c r="R22" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="U22" s="12"/>
+      <c r="U22" s="12">
+        <v>4</v>
+      </c>
     </row>
     <row r="23" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="6">
@@ -3391,7 +3425,9 @@
       <c r="R23" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="U23" s="12"/>
+      <c r="U23" s="12">
+        <v>4</v>
+      </c>
     </row>
     <row r="24" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="6">
@@ -3442,7 +3478,9 @@
       <c r="R24" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="U24" s="12"/>
+      <c r="U24" s="12">
+        <v>4</v>
+      </c>
     </row>
     <row r="25" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="6">
@@ -3493,7 +3531,9 @@
       <c r="R25" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="U25" s="12"/>
+      <c r="U25" s="12">
+        <v>5</v>
+      </c>
     </row>
     <row r="26" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="6">
@@ -3544,7 +3584,9 @@
       <c r="R26" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="U26" s="12"/>
+      <c r="U26" s="12">
+        <v>5</v>
+      </c>
     </row>
     <row r="27" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="6">
@@ -3595,7 +3637,9 @@
       <c r="R27" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="U27" s="12"/>
+      <c r="U27" s="12">
+        <v>5</v>
+      </c>
     </row>
     <row r="28" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="6">
@@ -3646,7 +3690,9 @@
       <c r="R28" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="U28" s="12"/>
+      <c r="U28" s="12">
+        <v>5</v>
+      </c>
     </row>
     <row r="29" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" s="6">
@@ -3697,7 +3743,9 @@
       <c r="R29" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="U29" s="12"/>
+      <c r="U29" s="12">
+        <v>5</v>
+      </c>
     </row>
     <row r="30" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" s="6">
@@ -3748,18 +3796,13 @@
       <c r="R30" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="U30" s="12"/>
+      <c r="U30" s="12">
+        <v>6</v>
+      </c>
     </row>
     <row r="31" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="32" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/JiaYuanConfig.xlsx
+++ b/Excel/JiaYuanConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B9C3C1-B84B-4C83-AA1A-9342D16B2812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A347C3-5FB9-4877-A36B-8ADEED064441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="135">
   <si>
     <t>Id</t>
   </si>
@@ -398,6 +398,36 @@
   <si>
     <t>int</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>家园26级</t>
+  </si>
+  <si>
+    <t>家园27级</t>
+  </si>
+  <si>
+    <t>家园28级</t>
+  </si>
+  <si>
+    <t>家园29级</t>
+  </si>
+  <si>
+    <t>家园30级</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
   </si>
 </sst>
 </file>
@@ -482,7 +512,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -585,6 +615,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -1609,7 +1645,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1636,15 +1672,32 @@
     <xf numFmtId="49" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="18" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="18" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="314">
@@ -2289,10 +2342,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:U33"/>
+  <dimension ref="C1:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2315,7 +2368,7 @@
       <c r="E1"/>
       <c r="H1"/>
       <c r="J1"/>
-      <c r="K1" s="11"/>
+      <c r="K1" s="10"/>
       <c r="L1"/>
       <c r="M1"/>
       <c r="N1"/>
@@ -2521,10 +2574,10 @@
       <c r="Q6" s="6">
         <v>1</v>
       </c>
-      <c r="R6" s="13" t="s">
+      <c r="R6" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="U6" s="12">
+      <c r="U6" s="11">
         <v>1</v>
       </c>
     </row>
@@ -2574,10 +2627,10 @@
       <c r="Q7" s="6">
         <v>1</v>
       </c>
-      <c r="R7" s="13" t="s">
+      <c r="R7" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="U7" s="12">
+      <c r="U7" s="11">
         <v>1</v>
       </c>
     </row>
@@ -2627,10 +2680,10 @@
       <c r="Q8" s="6">
         <v>1</v>
       </c>
-      <c r="R8" s="13" t="s">
+      <c r="R8" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="U8" s="12">
+      <c r="U8" s="11">
         <v>1</v>
       </c>
     </row>
@@ -2680,10 +2733,10 @@
       <c r="Q9" s="6">
         <v>1</v>
       </c>
-      <c r="R9" s="13" t="s">
+      <c r="R9" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="U9" s="12">
+      <c r="U9" s="11">
         <v>1</v>
       </c>
     </row>
@@ -2733,10 +2786,10 @@
       <c r="Q10" s="6">
         <v>1</v>
       </c>
-      <c r="R10" s="13" t="s">
+      <c r="R10" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="U10" s="12">
+      <c r="U10" s="11">
         <v>2</v>
       </c>
     </row>
@@ -2786,10 +2839,10 @@
       <c r="Q11" s="6">
         <v>2</v>
       </c>
-      <c r="R11" s="13" t="s">
+      <c r="R11" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="U11" s="12">
+      <c r="U11" s="11">
         <v>2</v>
       </c>
     </row>
@@ -2839,10 +2892,10 @@
       <c r="Q12" s="6">
         <v>2</v>
       </c>
-      <c r="R12" s="13" t="s">
+      <c r="R12" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="U12" s="12">
+      <c r="U12" s="11">
         <v>2</v>
       </c>
     </row>
@@ -2892,10 +2945,10 @@
       <c r="Q13" s="6">
         <v>2</v>
       </c>
-      <c r="R13" s="13" t="s">
+      <c r="R13" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="U13" s="12">
+      <c r="U13" s="11">
         <v>2</v>
       </c>
     </row>
@@ -2945,10 +2998,10 @@
       <c r="Q14" s="6">
         <v>2</v>
       </c>
-      <c r="R14" s="13" t="s">
+      <c r="R14" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="U14" s="12">
+      <c r="U14" s="11">
         <v>2</v>
       </c>
     </row>
@@ -2998,10 +3051,10 @@
       <c r="Q15" s="6">
         <v>2</v>
       </c>
-      <c r="R15" s="13" t="s">
+      <c r="R15" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="U15" s="12">
+      <c r="U15" s="11">
         <v>3</v>
       </c>
     </row>
@@ -3051,10 +3104,10 @@
       <c r="Q16" s="6">
         <v>2</v>
       </c>
-      <c r="R16" s="13" t="s">
+      <c r="R16" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="U16" s="12">
+      <c r="U16" s="11">
         <v>3</v>
       </c>
     </row>
@@ -3104,10 +3157,10 @@
       <c r="Q17" s="6">
         <v>3</v>
       </c>
-      <c r="R17" s="13" t="s">
+      <c r="R17" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="U17" s="12">
+      <c r="U17" s="11">
         <v>3</v>
       </c>
     </row>
@@ -3157,10 +3210,10 @@
       <c r="Q18" s="6">
         <v>3</v>
       </c>
-      <c r="R18" s="13" t="s">
+      <c r="R18" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="U18" s="12">
+      <c r="U18" s="11">
         <v>3</v>
       </c>
     </row>
@@ -3210,10 +3263,10 @@
       <c r="Q19" s="6">
         <v>3</v>
       </c>
-      <c r="R19" s="13" t="s">
+      <c r="R19" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="U19" s="12">
+      <c r="U19" s="11">
         <v>3</v>
       </c>
     </row>
@@ -3261,12 +3314,12 @@
         <v>1000</v>
       </c>
       <c r="Q20" s="6">
-        <v>3</v>
-      </c>
-      <c r="R20" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="R20" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="U20" s="12">
+      <c r="U20" s="11">
         <v>4</v>
       </c>
     </row>
@@ -3314,12 +3367,12 @@
         <v>1040</v>
       </c>
       <c r="Q21" s="6">
-        <v>3</v>
-      </c>
-      <c r="R21" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="U21" s="12">
+      <c r="U21" s="11">
         <v>4</v>
       </c>
     </row>
@@ -3367,12 +3420,12 @@
         <v>1080</v>
       </c>
       <c r="Q22" s="6">
-        <v>3</v>
-      </c>
-      <c r="R22" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="U22" s="12">
+      <c r="U22" s="11">
         <v>4</v>
       </c>
     </row>
@@ -3420,12 +3473,12 @@
         <v>1130</v>
       </c>
       <c r="Q23" s="6">
-        <v>4</v>
-      </c>
-      <c r="R23" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="R23" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="U23" s="12">
+      <c r="U23" s="11">
         <v>4</v>
       </c>
     </row>
@@ -3473,12 +3526,12 @@
         <v>1170</v>
       </c>
       <c r="Q24" s="6">
-        <v>4</v>
-      </c>
-      <c r="R24" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="R24" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="U24" s="12">
+      <c r="U24" s="11">
         <v>4</v>
       </c>
     </row>
@@ -3526,12 +3579,12 @@
         <v>1210</v>
       </c>
       <c r="Q25" s="6">
-        <v>4</v>
-      </c>
-      <c r="R25" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="R25" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="U25" s="12">
+      <c r="U25" s="11">
         <v>5</v>
       </c>
     </row>
@@ -3579,12 +3632,12 @@
         <v>1250</v>
       </c>
       <c r="Q26" s="6">
-        <v>4</v>
-      </c>
-      <c r="R26" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="R26" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="U26" s="12">
+      <c r="U26" s="11">
         <v>5</v>
       </c>
     </row>
@@ -3632,12 +3685,12 @@
         <v>1290</v>
       </c>
       <c r="Q27" s="6">
-        <v>5</v>
-      </c>
-      <c r="R27" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="R27" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="U27" s="12">
+      <c r="U27" s="11">
         <v>5</v>
       </c>
     </row>
@@ -3685,12 +3738,12 @@
         <v>1330</v>
       </c>
       <c r="Q28" s="6">
-        <v>5</v>
-      </c>
-      <c r="R28" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="R28" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="U28" s="12">
+      <c r="U28" s="11">
         <v>5</v>
       </c>
     </row>
@@ -3738,12 +3791,12 @@
         <v>1380</v>
       </c>
       <c r="Q29" s="6">
-        <v>5</v>
-      </c>
-      <c r="R29" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="R29" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="U29" s="12">
+      <c r="U29" s="11">
         <v>5</v>
       </c>
     </row>
@@ -3754,14 +3807,15 @@
       <c r="D30" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E30" s="10">
-        <v>0</v>
+      <c r="E30" s="6">
+        <v>10026</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>96</v>
       </c>
       <c r="G30" s="8">
-        <v>0</v>
+        <f>G29+100000</f>
+        <v>608200</v>
       </c>
       <c r="H30" s="6">
         <v>20</v>
@@ -3791,21 +3845,291 @@
         <v>1420</v>
       </c>
       <c r="Q30" s="6">
+        <v>7</v>
+      </c>
+      <c r="R30" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="U30" s="11">
         <v>6</v>
       </c>
-      <c r="R30" s="13" t="s">
+    </row>
+    <row r="31" spans="3:21" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="13">
+        <v>10026</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E31" s="13">
+        <v>10027</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31" s="16">
+        <v>800000</v>
+      </c>
+      <c r="H31" s="13">
+        <v>20</v>
+      </c>
+      <c r="I31" s="16">
+        <v>50</v>
+      </c>
+      <c r="J31" s="13">
+        <v>20</v>
+      </c>
+      <c r="K31" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="L31" s="13">
+        <f>L30+6000</f>
+        <v>94500</v>
+      </c>
+      <c r="M31" s="6">
+        <v>3500</v>
+      </c>
+      <c r="N31" s="13">
+        <v>200000</v>
+      </c>
+      <c r="O31" s="6">
+        <v>57000</v>
+      </c>
+      <c r="P31" s="6">
+        <v>1460</v>
+      </c>
+      <c r="Q31" s="13">
+        <v>7</v>
+      </c>
+      <c r="R31" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="U31" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C32" s="13">
+        <v>10027</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="E32" s="13">
+        <v>10028</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="G32" s="16">
+        <f>G31+200000</f>
+        <v>1000000</v>
+      </c>
+      <c r="H32" s="13">
+        <v>20</v>
+      </c>
+      <c r="I32" s="16">
+        <v>50</v>
+      </c>
+      <c r="J32" s="13">
+        <v>20</v>
+      </c>
+      <c r="K32" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="L32" s="13">
+        <f t="shared" ref="L32:L35" si="0">L31+6000</f>
+        <v>100500</v>
+      </c>
+      <c r="M32" s="6">
+        <v>3600</v>
+      </c>
+      <c r="N32" s="13">
+        <v>200000</v>
+      </c>
+      <c r="O32" s="6">
+        <v>60000</v>
+      </c>
+      <c r="P32" s="6">
+        <v>1500</v>
+      </c>
+      <c r="Q32" s="13">
+        <v>7</v>
+      </c>
+      <c r="R32" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="U32" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="3:21" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="13">
+        <v>10028</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E33" s="13">
+        <v>10029</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G33" s="16">
+        <f t="shared" ref="G32:G34" si="1">G32+250000</f>
+        <v>1250000</v>
+      </c>
+      <c r="H33" s="13">
+        <v>20</v>
+      </c>
+      <c r="I33" s="16">
+        <v>50</v>
+      </c>
+      <c r="J33" s="13">
+        <v>20</v>
+      </c>
+      <c r="K33" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="L33" s="13">
+        <f t="shared" si="0"/>
+        <v>106500</v>
+      </c>
+      <c r="M33" s="6">
+        <v>3700</v>
+      </c>
+      <c r="N33" s="13">
+        <v>200000</v>
+      </c>
+      <c r="O33" s="6">
+        <v>63000</v>
+      </c>
+      <c r="P33" s="6">
+        <v>1540</v>
+      </c>
+      <c r="Q33" s="13">
+        <v>8</v>
+      </c>
+      <c r="R33" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="U33" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="3:21" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C34" s="13">
+        <v>10029</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="E34" s="13">
+        <v>10030</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G34" s="16">
+        <f t="shared" si="1"/>
+        <v>1500000</v>
+      </c>
+      <c r="H34" s="13">
+        <v>20</v>
+      </c>
+      <c r="I34" s="16">
+        <v>50</v>
+      </c>
+      <c r="J34" s="13">
+        <v>20</v>
+      </c>
+      <c r="K34" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="L34" s="13">
+        <f t="shared" si="0"/>
+        <v>112500</v>
+      </c>
+      <c r="M34" s="6">
+        <v>3800</v>
+      </c>
+      <c r="N34" s="13">
+        <v>200000</v>
+      </c>
+      <c r="O34" s="6">
+        <v>66000</v>
+      </c>
+      <c r="P34" s="6">
+        <v>1580</v>
+      </c>
+      <c r="Q34" s="13">
+        <v>8</v>
+      </c>
+      <c r="R34" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="U34" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="3:21" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="13">
+        <v>10030</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="E35" s="20">
+        <v>0</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="G35" s="16">
+        <v>0</v>
+      </c>
+      <c r="H35" s="13">
+        <v>20</v>
+      </c>
+      <c r="I35" s="16">
+        <v>50</v>
+      </c>
+      <c r="J35" s="13">
+        <v>20</v>
+      </c>
+      <c r="K35" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="L35" s="13">
+        <f t="shared" si="0"/>
+        <v>118500</v>
+      </c>
+      <c r="M35" s="6">
+        <v>3900</v>
+      </c>
+      <c r="N35" s="13">
+        <v>200000</v>
+      </c>
+      <c r="O35" s="6">
+        <v>69000</v>
+      </c>
+      <c r="P35" s="6">
+        <v>1620</v>
+      </c>
+      <c r="Q35" s="13">
+        <v>9</v>
+      </c>
+      <c r="R35" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="U30" s="12">
+      <c r="U35" s="19">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/JiaYuanConfig.xlsx
+++ b/Excel/JiaYuanConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A347C3-5FB9-4877-A36B-8ADEED064441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93358829-D43E-49DE-8F52-48E9557E784F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="140">
   <si>
     <t>Id</t>
   </si>
@@ -428,6 +428,21 @@
   </si>
   <si>
     <t>30</t>
+  </si>
+  <si>
+    <t>100403,1350;100603,405;100803,405;100203,13500;119303,675;119403,675;119103,675;119203,675;105103,135;105303,135;105203,135;105403,135;105503,135;119503,675;110203,405;110103,675;120603,405;120703,405</t>
+  </si>
+  <si>
+    <t>100403,1400;100603,420;100803,420;100203,14000;119303,700;119403,700;119103,700;119203,700;105103,140;105303,140;105203,140;105403,140;105503,140;119503,700;110203,420;110103,700;120603,420;120703,420</t>
+  </si>
+  <si>
+    <t>100403,1450;100603,435;100803,435;100203,14500;119303,725;119403,725;119103,725;119203,725;105103,145;105303,145;105203,145;105403,145;105503,145;119503,725;110203,435;110103,725;120603,435;120703,435</t>
+  </si>
+  <si>
+    <t>100403,1500;100603,450;100803,450;100203,15000;119303,750;119403,750;119103,750;119203,750;105103,150;105303,150;105203,150;105403,150;105503,150;119503,750;110203,450;110103,750;120603,450;120703,450</t>
+  </si>
+  <si>
+    <t>100403,1550;100603,465;100803,465;100203,15500;119303,775;119403,775;119103,775;119203,775;105103,155;105303,155;105203,155;105403,155;105503,155;119503,775;110203,465;110103,775;120603,465;120703,465</t>
   </si>
 </sst>
 </file>
@@ -1645,7 +1660,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1690,9 +1705,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2342,10 +2354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:U35"/>
+  <dimension ref="C1:U50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="E27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2577,9 +2589,7 @@
       <c r="R6" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="U6" s="11">
-        <v>1</v>
-      </c>
+      <c r="U6" s="11"/>
     </row>
     <row r="7" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="6">
@@ -2630,9 +2640,7 @@
       <c r="R7" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="U7" s="11">
-        <v>1</v>
-      </c>
+      <c r="U7" s="11"/>
     </row>
     <row r="8" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="6">
@@ -2683,9 +2691,7 @@
       <c r="R8" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="U8" s="11">
-        <v>1</v>
-      </c>
+      <c r="U8" s="11"/>
     </row>
     <row r="9" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="6">
@@ -2736,9 +2742,7 @@
       <c r="R9" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="U9" s="11">
-        <v>1</v>
-      </c>
+      <c r="U9" s="11"/>
     </row>
     <row r="10" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="6">
@@ -2789,9 +2793,7 @@
       <c r="R10" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="U10" s="11">
-        <v>2</v>
-      </c>
+      <c r="U10" s="11"/>
     </row>
     <row r="11" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="6">
@@ -2842,9 +2844,7 @@
       <c r="R11" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="U11" s="11">
-        <v>2</v>
-      </c>
+      <c r="U11" s="11"/>
     </row>
     <row r="12" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="6">
@@ -2895,9 +2895,7 @@
       <c r="R12" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="U12" s="11">
-        <v>2</v>
-      </c>
+      <c r="U12" s="11"/>
     </row>
     <row r="13" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="6">
@@ -2948,9 +2946,7 @@
       <c r="R13" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="U13" s="11">
-        <v>2</v>
-      </c>
+      <c r="U13" s="11"/>
     </row>
     <row r="14" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="6">
@@ -3001,9 +2997,7 @@
       <c r="R14" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="U14" s="11">
-        <v>2</v>
-      </c>
+      <c r="U14" s="11"/>
     </row>
     <row r="15" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="6">
@@ -3054,9 +3048,7 @@
       <c r="R15" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="U15" s="11">
-        <v>3</v>
-      </c>
+      <c r="U15" s="11"/>
     </row>
     <row r="16" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="6">
@@ -3107,9 +3099,7 @@
       <c r="R16" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="U16" s="11">
-        <v>3</v>
-      </c>
+      <c r="U16" s="11"/>
     </row>
     <row r="17" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="6">
@@ -3160,9 +3150,7 @@
       <c r="R17" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="U17" s="11">
-        <v>3</v>
-      </c>
+      <c r="U17" s="11"/>
     </row>
     <row r="18" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="6">
@@ -3213,9 +3201,7 @@
       <c r="R18" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="U18" s="11">
-        <v>3</v>
-      </c>
+      <c r="U18" s="11"/>
     </row>
     <row r="19" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="6">
@@ -3266,9 +3252,7 @@
       <c r="R19" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="U19" s="11">
-        <v>3</v>
-      </c>
+      <c r="U19" s="11"/>
     </row>
     <row r="20" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="6">
@@ -3319,9 +3303,7 @@
       <c r="R20" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="U20" s="11">
-        <v>4</v>
-      </c>
+      <c r="U20" s="11"/>
     </row>
     <row r="21" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="6">
@@ -3372,9 +3354,7 @@
       <c r="R21" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="U21" s="11">
-        <v>4</v>
-      </c>
+      <c r="U21" s="11"/>
     </row>
     <row r="22" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="6">
@@ -3425,9 +3405,7 @@
       <c r="R22" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="U22" s="11">
-        <v>4</v>
-      </c>
+      <c r="U22" s="11"/>
     </row>
     <row r="23" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="6">
@@ -3478,9 +3456,7 @@
       <c r="R23" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="U23" s="11">
-        <v>4</v>
-      </c>
+      <c r="U23" s="11"/>
     </row>
     <row r="24" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="6">
@@ -3531,9 +3507,7 @@
       <c r="R24" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="U24" s="11">
-        <v>4</v>
-      </c>
+      <c r="U24" s="11"/>
     </row>
     <row r="25" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="6">
@@ -3584,9 +3558,7 @@
       <c r="R25" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="U25" s="11">
-        <v>5</v>
-      </c>
+      <c r="U25" s="11"/>
     </row>
     <row r="26" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="6">
@@ -3637,9 +3609,7 @@
       <c r="R26" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="U26" s="11">
-        <v>5</v>
-      </c>
+      <c r="U26" s="11"/>
     </row>
     <row r="27" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="6">
@@ -3690,9 +3660,7 @@
       <c r="R27" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="U27" s="11">
-        <v>5</v>
-      </c>
+      <c r="U27" s="11"/>
     </row>
     <row r="28" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="6">
@@ -3743,9 +3711,7 @@
       <c r="R28" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="U28" s="11">
-        <v>5</v>
-      </c>
+      <c r="U28" s="11"/>
     </row>
     <row r="29" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" s="6">
@@ -3796,9 +3762,7 @@
       <c r="R29" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="U29" s="11">
-        <v>5</v>
-      </c>
+      <c r="U29" s="11"/>
     </row>
     <row r="30" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" s="6">
@@ -3850,11 +3814,9 @@
       <c r="R30" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="U30" s="11">
-        <v>6</v>
-      </c>
+      <c r="U30" s="11"/>
     </row>
-    <row r="31" spans="3:21" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:21" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="13">
         <v>10026</v>
       </c>
@@ -3901,14 +3863,12 @@
       <c r="Q31" s="13">
         <v>7</v>
       </c>
-      <c r="R31" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="U31" s="19">
-        <v>5</v>
-      </c>
+      <c r="R31" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="U31" s="18"/>
     </row>
-    <row r="32" spans="3:21" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:21" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="13">
         <v>10027</v>
       </c>
@@ -3956,14 +3916,12 @@
       <c r="Q32" s="13">
         <v>7</v>
       </c>
-      <c r="R32" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="U32" s="19">
-        <v>5</v>
-      </c>
+      <c r="R32" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="U32" s="18"/>
     </row>
-    <row r="33" spans="3:21" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:21" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" s="13">
         <v>10028</v>
       </c>
@@ -3977,7 +3935,7 @@
         <v>132</v>
       </c>
       <c r="G33" s="16">
-        <f t="shared" ref="G32:G34" si="1">G32+250000</f>
+        <f t="shared" ref="G33:G34" si="1">G32+250000</f>
         <v>1250000</v>
       </c>
       <c r="H33" s="13">
@@ -4011,14 +3969,12 @@
       <c r="Q33" s="13">
         <v>8</v>
       </c>
-      <c r="R33" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="U33" s="19">
-        <v>5</v>
-      </c>
+      <c r="R33" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="U33" s="18"/>
     </row>
-    <row r="34" spans="3:21" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:21" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" s="13">
         <v>10029</v>
       </c>
@@ -4066,21 +4022,19 @@
       <c r="Q34" s="13">
         <v>8</v>
       </c>
-      <c r="R34" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="U34" s="19">
-        <v>5</v>
-      </c>
+      <c r="R34" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="U34" s="18"/>
     </row>
-    <row r="35" spans="3:21" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:21" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="13">
         <v>10030</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="E35" s="20">
+      <c r="E35" s="19">
         <v>0</v>
       </c>
       <c r="F35" s="15" t="s">
@@ -4120,13 +4074,26 @@
       <c r="Q35" s="13">
         <v>9</v>
       </c>
-      <c r="R35" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="U35" s="19">
-        <v>6</v>
-      </c>
+      <c r="R35" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="U35" s="18"/>
     </row>
+    <row r="36" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
